--- a/capiq_data/in_process_data/IQ267906.xlsx
+++ b/capiq_data/in_process_data/IQ267906.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1907EB69-BA9A-456F-B9D4-C35C3BB41180}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1569CED2-0EF0-4EB1-BED0-EB595847B08F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"5d86f391-b3c7-429d-9544-97cd3f3f8211"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"9b1ff426-aeba-405e-985f-86b8aec40864"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>85.662000000000006</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>449.81</v>
       </c>
       <c r="E2">
-        <v>155.18100000000001</v>
+        <v>99.36</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>151.583</v>
       </c>
       <c r="G2">
-        <v>567.85199999999998</v>
+        <v>138.55099999999999</v>
       </c>
       <c r="H2">
-        <v>7644.2759999999998</v>
+        <v>5460.0360000000001</v>
       </c>
       <c r="I2">
-        <v>44.781999999999996</v>
+        <v>74.417000000000002</v>
       </c>
       <c r="J2">
-        <v>4207.0789999999997</v>
+        <v>1973.2149999999999</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>266.98399999999998</v>
+        <v>215.86600000000001</v>
       </c>
       <c r="O2">
-        <v>4654.3729999999996</v>
+        <v>2311.8290000000002</v>
       </c>
       <c r="P2">
-        <v>4207.0789999999997</v>
+        <v>1973.2149999999999</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-2.0960000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>1000</v>
+        <v>1411</v>
       </c>
       <c r="T2">
-        <v>2989.9029999999998</v>
+        <v>3148.2069999999999</v>
       </c>
       <c r="U2">
-        <v>18.384</v>
+        <v>39.191000000000003</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>148.07499999999999</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-67.084000000000003</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-295.98</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>134.47200000000001</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>85.662000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>63.706000000000003</v>
+        <v>72.042000000000002</v>
       </c>
       <c r="D3">
-        <v>338.60599999999999</v>
+        <v>255.57599999999999</v>
       </c>
       <c r="E3">
-        <v>196.84200000000001</v>
+        <v>94.905000000000001</v>
       </c>
       <c r="F3">
-        <v>134.18299999999999</v>
+        <v>162.06299999999999</v>
       </c>
       <c r="G3">
-        <v>363.95699999999999</v>
+        <v>133.79599999999999</v>
       </c>
       <c r="H3">
-        <v>7527.491</v>
+        <v>5479.442</v>
       </c>
       <c r="I3">
-        <v>69.369</v>
+        <v>65.972999999999999</v>
       </c>
       <c r="J3">
-        <v>4028.4609999999998</v>
+        <v>1724.95</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-221.56200000000001</v>
+        <v>-228.125</v>
       </c>
       <c r="N3">
-        <v>271.78800000000001</v>
+        <v>388.57100000000003</v>
       </c>
       <c r="O3">
-        <v>4501.6409999999996</v>
+        <v>2238.13</v>
       </c>
       <c r="P3">
-        <v>4071.5030000000002</v>
+        <v>1926.1890000000001</v>
       </c>
       <c r="Q3">
-        <v>148.73099999999999</v>
+        <v>-0.3</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3025.85</v>
+        <v>3241.3119999999999</v>
       </c>
       <c r="U3">
-        <v>167.11500000000001</v>
+        <v>38.890999999999998</v>
       </c>
       <c r="V3">
-        <v>28.024999999999999</v>
+        <v>77.507000000000005</v>
       </c>
       <c r="W3">
-        <v>-58.866</v>
+        <v>-68.430999999999997</v>
       </c>
       <c r="X3">
-        <v>-284.93900000000002</v>
+        <v>-50.192</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>48.661999999999999</v>
+        <v>9.0579999999999998</v>
       </c>
       <c r="AA3">
-        <v>63.706000000000003</v>
+        <v>72.042000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-13.068</v>
+        <v>63.49</v>
       </c>
       <c r="D4">
-        <v>317.084</v>
+        <v>261.89600000000002</v>
       </c>
       <c r="E4">
-        <v>209.17500000000001</v>
+        <v>116.82899999999999</v>
       </c>
       <c r="F4">
-        <v>134.66200000000001</v>
+        <v>161.36500000000001</v>
       </c>
       <c r="G4">
-        <v>326.82</v>
+        <v>219.85599999999999</v>
       </c>
       <c r="H4">
-        <v>7527.085</v>
+        <v>5490.4859999999999</v>
       </c>
       <c r="I4">
-        <v>67.757000000000005</v>
+        <v>74.929000000000002</v>
       </c>
       <c r="J4">
-        <v>4090.83</v>
+        <v>1735.9259999999999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>291.75599999999997</v>
+        <v>371.63400000000001</v>
       </c>
       <c r="O4">
-        <v>4572.3130000000001</v>
+        <v>2237.4360000000001</v>
       </c>
       <c r="P4">
-        <v>4111.527</v>
+        <v>1903.77</v>
       </c>
       <c r="Q4">
-        <v>-49.47</v>
+        <v>64.135999999999996</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2954.7719999999999</v>
+        <v>3253.05</v>
       </c>
       <c r="U4">
-        <v>117.645</v>
+        <v>103.027</v>
       </c>
       <c r="V4">
-        <v>116.267</v>
+        <v>22.158000000000001</v>
       </c>
       <c r="W4">
-        <v>-58.924999999999997</v>
+        <v>-69.290000000000006</v>
       </c>
       <c r="X4">
-        <v>-65.75</v>
+        <v>-85.94</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-10.849</v>
+        <v>48.296999999999997</v>
       </c>
       <c r="AA4">
-        <v>-13.068</v>
+        <v>63.49</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>90.349000000000004</v>
       </c>
       <c r="D5">
-        <v>315.39299999999997</v>
+        <v>267.53199999999998</v>
       </c>
       <c r="E5">
-        <v>206.84200000000001</v>
+        <v>104.27800000000001</v>
       </c>
       <c r="F5">
-        <v>133.04400000000001</v>
+        <v>159.34700000000001</v>
       </c>
       <c r="G5">
-        <v>245.01599999999999</v>
+        <v>113.782</v>
       </c>
       <c r="H5">
-        <v>7504.6610000000001</v>
+        <v>5304.0020000000004</v>
       </c>
       <c r="I5">
-        <v>66.786000000000001</v>
+        <v>79.63</v>
       </c>
       <c r="J5">
-        <v>4248.0730000000003</v>
+        <v>1743.991</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>293.971</v>
+        <v>228.178</v>
       </c>
       <c r="O5">
-        <v>4729.7179999999998</v>
+        <v>2115.6619999999998</v>
       </c>
       <c r="P5">
-        <v>4272.3230000000003</v>
+        <v>1763.95</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-93.522999999999996</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2774.9430000000002</v>
+        <v>3188.34</v>
       </c>
       <c r="U5">
-        <v>16.181999999999999</v>
+        <v>9.5039999999999996</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>168.43299999999999</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-72.381</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-296.62599999999998</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-14.083</v>
       </c>
       <c r="AA5">
-        <v>-14.044</v>
+        <v>90.349000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>58.970999999999997</v>
+        <v>56.527999999999999</v>
       </c>
       <c r="D6">
-        <v>298.98500000000001</v>
+        <v>242.36199999999999</v>
       </c>
       <c r="E6">
-        <v>168.40199999999999</v>
+        <v>95.97</v>
       </c>
       <c r="F6">
-        <v>139.21799999999999</v>
+        <v>148.81700000000001</v>
       </c>
       <c r="G6">
-        <v>437.791</v>
+        <v>105.453</v>
       </c>
       <c r="H6">
-        <v>7004.4369999999999</v>
+        <v>5330.0330000000004</v>
       </c>
       <c r="I6">
-        <v>55.774999999999999</v>
+        <v>57.009</v>
       </c>
       <c r="J6">
-        <v>3789.2959999999998</v>
+        <v>1814.856</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>265.39299999999997</v>
+        <v>182.75700000000001</v>
       </c>
       <c r="O6">
-        <v>4224.7790000000005</v>
+        <v>2149.8339999999998</v>
       </c>
       <c r="P6">
-        <v>3809.5889999999999</v>
+        <v>1814.856</v>
       </c>
       <c r="Q6">
-        <v>197.62700000000001</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>850</v>
+        <v>1050</v>
       </c>
       <c r="T6">
-        <v>2779.6579999999999</v>
+        <v>3180.1990000000001</v>
       </c>
       <c r="U6">
-        <v>213.809</v>
+        <v>9.4830000000000005</v>
       </c>
       <c r="V6">
-        <v>92.453000000000003</v>
+        <v>81.569999999999993</v>
       </c>
       <c r="W6">
-        <v>-57.003</v>
+        <v>-70.947000000000003</v>
       </c>
       <c r="X6">
-        <v>-520.43499999999995</v>
+        <v>-38.156999999999996</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-1.722</v>
+        <v>-5.09</v>
       </c>
       <c r="AA6">
-        <v>58.970999999999997</v>
+        <v>56.527999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-17.466999999999999</v>
+        <v>57.386000000000003</v>
       </c>
       <c r="D7">
-        <v>265.57600000000002</v>
+        <v>244.642</v>
       </c>
       <c r="E7">
-        <v>168.417</v>
+        <v>86.02</v>
       </c>
       <c r="F7">
-        <v>137.98699999999999</v>
+        <v>159.25299999999999</v>
       </c>
       <c r="G7">
-        <v>202.55199999999999</v>
+        <v>99.53</v>
       </c>
       <c r="H7">
-        <v>6872.4049999999997</v>
+        <v>5243.4679999999998</v>
       </c>
       <c r="I7">
-        <v>51.308999999999997</v>
+        <v>43.06</v>
       </c>
       <c r="J7">
-        <v>3473.8420000000001</v>
+        <v>1674.6869999999999</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-10.906000000000001</v>
+        <v>-84.584999999999994</v>
       </c>
       <c r="N7">
-        <v>533.976</v>
+        <v>229.124</v>
       </c>
       <c r="O7">
-        <v>4186.9350000000004</v>
+        <v>2060.0349999999999</v>
       </c>
       <c r="P7">
-        <v>3816.87</v>
+        <v>1737.787</v>
       </c>
       <c r="Q7">
-        <v>-199.06899999999999</v>
+        <v>4.0270000000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2685.47</v>
+        <v>3183.433</v>
       </c>
       <c r="U7">
-        <v>14.74</v>
+        <v>13.51</v>
       </c>
       <c r="V7">
-        <v>25.343</v>
+        <v>208.40199999999999</v>
       </c>
       <c r="W7">
-        <v>-53.389000000000003</v>
+        <v>-71.406000000000006</v>
       </c>
       <c r="X7">
-        <v>-86.837000000000003</v>
+        <v>-159.02000000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-3.5209999999999999</v>
+        <v>-8.7940000000000005</v>
       </c>
       <c r="AA7">
-        <v>-17.466999999999999</v>
+        <v>57.386000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>-17.399999999999999</v>
+        <v>60.634999999999998</v>
       </c>
       <c r="D8">
-        <v>256.01900000000001</v>
+        <v>232.62100000000001</v>
       </c>
       <c r="E8">
-        <v>164.84200000000001</v>
+        <v>90.031999999999996</v>
       </c>
       <c r="F8">
-        <v>138.75399999999999</v>
+        <v>157.91200000000001</v>
       </c>
       <c r="G8">
-        <v>283.14</v>
+        <v>92.537000000000006</v>
       </c>
       <c r="H8">
-        <v>7068.09</v>
+        <v>5235.8909999999996</v>
       </c>
       <c r="I8">
-        <v>60.930999999999997</v>
+        <v>39.718000000000004</v>
       </c>
       <c r="J8">
-        <v>4016.35</v>
+        <v>1673.3710000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>264.39400000000001</v>
+        <v>236.21899999999999</v>
       </c>
       <c r="O8">
-        <v>4448.7120000000004</v>
+        <v>2048.239</v>
       </c>
       <c r="P8">
-        <v>4036.643</v>
+        <v>1735.2170000000001</v>
       </c>
       <c r="Q8">
-        <v>91.825000000000003</v>
+        <v>-11.005000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2619.3780000000002</v>
+        <v>3187.652</v>
       </c>
       <c r="U8">
-        <v>106.565</v>
+        <v>2.5049999999999999</v>
       </c>
       <c r="V8">
-        <v>115.10299999999999</v>
+        <v>165.79300000000001</v>
       </c>
       <c r="W8">
-        <v>-56.378999999999998</v>
+        <v>-72.548000000000002</v>
       </c>
       <c r="X8">
-        <v>168.655</v>
+        <v>-72.281000000000006</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-12.91</v>
+        <v>-9.43</v>
       </c>
       <c r="AA8">
-        <v>-17.399999999999999</v>
+        <v>60.634999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-17.149000000000001</v>
+        <v>50.993000000000002</v>
       </c>
       <c r="D9">
-        <v>295.53800000000001</v>
+        <v>235.458</v>
       </c>
       <c r="E9">
-        <v>183.166</v>
+        <v>98.272999999999996</v>
       </c>
       <c r="F9">
-        <v>142.375</v>
+        <v>151.72399999999999</v>
       </c>
       <c r="G9">
-        <v>296.31799999999998</v>
+        <v>141.31</v>
       </c>
       <c r="H9">
-        <v>7190.1170000000002</v>
+        <v>5299.4639999999999</v>
       </c>
       <c r="I9">
-        <v>80.933999999999997</v>
+        <v>45.3</v>
       </c>
       <c r="J9">
-        <v>4140.1450000000004</v>
+        <v>1857.43</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>261.90699999999998</v>
+        <v>188.62700000000001</v>
       </c>
       <c r="O9">
-        <v>4565.076</v>
+        <v>2186.1080000000002</v>
       </c>
       <c r="P9">
-        <v>4140.1450000000004</v>
+        <v>1864.1089999999999</v>
       </c>
       <c r="Q9">
-        <v>6.5869999999999997</v>
+        <v>40.531999999999996</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2625.0410000000002</v>
+        <v>3113.3560000000002</v>
       </c>
       <c r="U9">
-        <v>113.152</v>
+        <v>43.036999999999999</v>
       </c>
       <c r="V9">
-        <v>61.09</v>
+        <v>103.623</v>
       </c>
       <c r="W9">
-        <v>-56.945</v>
+        <v>-73.100999999999999</v>
       </c>
       <c r="X9">
-        <v>121.142</v>
+        <v>-4.8310000000000004</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>2.0590000000000002</v>
+        <v>8.2940000000000005</v>
       </c>
       <c r="AA9">
-        <v>-17.149000000000001</v>
+        <v>50.993000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-21.960999999999999</v>
+        <v>38.152999999999999</v>
       </c>
       <c r="D10">
-        <v>234.23699999999999</v>
+        <v>228.58199999999999</v>
       </c>
       <c r="E10">
-        <v>182.34</v>
+        <v>90.658000000000001</v>
       </c>
       <c r="F10">
-        <v>129.267</v>
+        <v>136.80099999999999</v>
       </c>
       <c r="G10">
-        <v>247.166</v>
+        <v>108.072</v>
       </c>
       <c r="H10">
-        <v>7560.1009999999997</v>
+        <v>5348.8230000000003</v>
       </c>
       <c r="I10">
-        <v>84.679000000000002</v>
+        <v>43.78</v>
       </c>
       <c r="J10">
-        <v>4446.17</v>
+        <v>2106.2849999999999</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,161 +1556,161 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>323.98500000000001</v>
+        <v>177.196</v>
       </c>
       <c r="O10">
-        <v>4933.9830000000002</v>
+        <v>2424.002</v>
       </c>
       <c r="P10">
-        <v>4446.17</v>
+        <v>2106.2849999999999</v>
       </c>
       <c r="Q10">
-        <v>-79.263000000000005</v>
+        <v>-25.623000000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>840</v>
+        <v>1001</v>
       </c>
       <c r="T10">
-        <v>2626.1179999999999</v>
+        <v>2924.8209999999999</v>
       </c>
       <c r="U10">
-        <v>33.889000000000003</v>
+        <v>17.414000000000001</v>
       </c>
       <c r="V10">
-        <v>97.620999999999995</v>
+        <v>91.778000000000006</v>
       </c>
       <c r="W10">
-        <v>-61.616999999999997</v>
+        <v>-72.472999999999999</v>
       </c>
       <c r="X10">
-        <v>285.57900000000001</v>
+        <v>12.439</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-8.984</v>
+        <v>-1.2</v>
       </c>
       <c r="AA10">
-        <v>-21.960999999999999</v>
+        <v>38.152999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>43.524999999999999</v>
+        <v>46.228999999999999</v>
       </c>
       <c r="D11">
-        <v>306.661</v>
+        <v>232.405</v>
       </c>
       <c r="E11">
-        <v>170.09700000000001</v>
+        <v>96.82</v>
       </c>
       <c r="F11">
-        <v>201.06299999999999</v>
+        <v>141.27699999999999</v>
       </c>
       <c r="G11">
-        <v>582.76900000000001</v>
+        <v>109.32899999999999</v>
       </c>
       <c r="H11">
-        <v>7802.0990000000002</v>
+        <v>5381.0230000000001</v>
       </c>
       <c r="I11">
-        <v>81.043999999999997</v>
+        <v>38.290999999999997</v>
       </c>
       <c r="J11">
-        <v>4394.3969999999999</v>
+        <v>1720.354</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>-45.271999999999998</v>
+        <v>-75.094999999999999</v>
       </c>
       <c r="M11">
-        <v>-302.96600000000001</v>
+        <v>-61.706000000000003</v>
       </c>
       <c r="N11">
-        <v>236.22300000000001</v>
+        <v>617.44299999999998</v>
       </c>
       <c r="O11">
-        <v>4797.518</v>
+        <v>2480.761</v>
       </c>
       <c r="P11">
-        <v>4394.3969999999999</v>
+        <v>2181.6350000000002</v>
       </c>
       <c r="Q11">
-        <v>273.27800000000002</v>
+        <v>-4.9050000000000002</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3004.5810000000001</v>
+        <v>2900.2620000000002</v>
       </c>
       <c r="U11">
-        <v>307.16699999999997</v>
+        <v>12.509</v>
       </c>
       <c r="V11">
-        <v>73.433999999999997</v>
+        <v>58.881999999999998</v>
       </c>
       <c r="W11">
-        <v>-64.227999999999994</v>
+        <v>-70.254000000000005</v>
       </c>
       <c r="X11">
-        <v>231.172</v>
+        <v>-2.4609999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>84.391000000000005</v>
+        <v>-1.3129999999999999</v>
       </c>
       <c r="AA11">
-        <v>43.524999999999999</v>
+        <v>46.228999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>68.849000000000004</v>
+        <v>43.29</v>
       </c>
       <c r="D12">
-        <v>267.19200000000001</v>
+        <v>248.31299999999999</v>
       </c>
       <c r="E12">
-        <v>175.33600000000001</v>
+        <v>108.23399999999999</v>
       </c>
       <c r="F12">
-        <v>152.577</v>
+        <v>148.928</v>
       </c>
       <c r="G12">
-        <v>253.78399999999999</v>
+        <v>119.905</v>
       </c>
       <c r="H12">
-        <v>7883.902</v>
+        <v>5430.9260000000004</v>
       </c>
       <c r="I12">
-        <v>87.73</v>
+        <v>52.665999999999997</v>
       </c>
       <c r="J12">
-        <v>4396.777</v>
+        <v>1871.0029999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>278.255</v>
+        <v>550.04700000000003</v>
       </c>
       <c r="O12">
-        <v>4841.4359999999997</v>
+        <v>2566.817</v>
       </c>
       <c r="P12">
-        <v>4396.777</v>
+        <v>2234.877</v>
       </c>
       <c r="Q12">
-        <v>-285.76499999999999</v>
+        <v>-0.83799999999999997</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3042.4659999999999</v>
+        <v>2864.1089999999999</v>
       </c>
       <c r="U12">
-        <v>21.402000000000001</v>
+        <v>11.670999999999999</v>
       </c>
       <c r="V12">
-        <v>124.771</v>
+        <v>103.15600000000001</v>
       </c>
       <c r="W12">
-        <v>-62.231000000000002</v>
+        <v>-70.347999999999999</v>
       </c>
       <c r="X12">
-        <v>-132.74700000000001</v>
+        <v>-28.603999999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-8.4139999999999997</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="AA12">
-        <v>68.849000000000004</v>
+        <v>43.29</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>1.2889999999999999</v>
+        <v>49.6</v>
       </c>
       <c r="D13">
-        <v>284.435</v>
+        <v>263.577</v>
       </c>
       <c r="E13">
-        <v>173.297</v>
+        <v>134.16499999999999</v>
       </c>
       <c r="F13">
-        <v>153.72499999999999</v>
+        <v>148.83600000000001</v>
       </c>
       <c r="G13">
-        <v>255.19900000000001</v>
+        <v>135.096</v>
       </c>
       <c r="H13">
-        <v>7886.8389999999999</v>
+        <v>5554.9549999999999</v>
       </c>
       <c r="I13">
-        <v>78.376000000000005</v>
+        <v>66.701999999999998</v>
       </c>
       <c r="J13">
-        <v>4435.2110000000002</v>
+        <v>2245.3470000000002</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>262.44499999999999</v>
+        <v>216.846</v>
       </c>
       <c r="O13">
-        <v>4873.8950000000004</v>
+        <v>2601.4209999999998</v>
       </c>
       <c r="P13">
-        <v>4435.2110000000002</v>
+        <v>2256.5520000000001</v>
       </c>
       <c r="Q13">
-        <v>2.71</v>
+        <v>-10.74</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3012.944</v>
+        <v>2953.5340000000001</v>
       </c>
       <c r="U13">
-        <v>24.111999999999998</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="V13">
-        <v>119.419</v>
+        <v>72.734999999999999</v>
       </c>
       <c r="W13">
-        <v>-62.613</v>
+        <v>-71.159000000000006</v>
       </c>
       <c r="X13">
-        <v>1.244</v>
+        <v>42.908999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-8.6300000000000008</v>
+        <v>-11.928000000000001</v>
       </c>
       <c r="AA13">
-        <v>1.2889999999999999</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>76.929000000000002</v>
+        <v>60.113</v>
       </c>
       <c r="D14">
-        <v>275.84100000000001</v>
+        <v>291.07600000000002</v>
       </c>
       <c r="E14">
-        <v>163.63300000000001</v>
+        <v>132.16900000000001</v>
       </c>
       <c r="F14">
-        <v>163.32</v>
+        <v>158.108</v>
       </c>
       <c r="G14">
-        <v>240.374</v>
+        <v>144.80099999999999</v>
       </c>
       <c r="H14">
-        <v>7752.6139999999996</v>
+        <v>5561.2489999999998</v>
       </c>
       <c r="I14">
-        <v>69.38</v>
+        <v>63.057000000000002</v>
       </c>
       <c r="J14">
-        <v>4254.3760000000002</v>
+        <v>2335.5360000000001</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,161 +1888,161 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>266.47000000000003</v>
+        <v>201.08199999999999</v>
       </c>
       <c r="O14">
-        <v>4707.9849999999997</v>
+        <v>2681.7060000000001</v>
       </c>
       <c r="P14">
-        <v>4254.3760000000002</v>
+        <v>2335.5360000000001</v>
       </c>
       <c r="Q14">
-        <v>-4.8369999999999997</v>
+        <v>11.701000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>790</v>
+        <v>1011</v>
       </c>
       <c r="T14">
-        <v>3044.6289999999999</v>
+        <v>2879.5430000000001</v>
       </c>
       <c r="U14">
-        <v>19.274999999999999</v>
+        <v>12.632</v>
       </c>
       <c r="V14">
-        <v>118.05200000000001</v>
+        <v>133.85499999999999</v>
       </c>
       <c r="W14">
-        <v>-62.841000000000001</v>
+        <v>-73.66</v>
       </c>
       <c r="X14">
-        <v>-230.577</v>
+        <v>-64.558000000000007</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-19.908999999999999</v>
+        <v>7.8129999999999997</v>
       </c>
       <c r="AA14">
-        <v>76.929000000000002</v>
+        <v>60.113</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>25.236999999999998</v>
+        <v>44.1</v>
       </c>
       <c r="D15">
-        <v>266.78699999999998</v>
+        <v>273.34300000000002</v>
       </c>
       <c r="E15">
-        <v>188.88200000000001</v>
+        <v>135.322</v>
       </c>
       <c r="F15">
-        <v>148.25800000000001</v>
+        <v>149.298</v>
       </c>
       <c r="G15">
-        <v>243.18199999999999</v>
+        <v>147.221</v>
       </c>
       <c r="H15">
-        <v>7767.3630000000003</v>
+        <v>5626.4639999999999</v>
       </c>
       <c r="I15">
-        <v>72.694999999999993</v>
+        <v>57.128999999999998</v>
       </c>
       <c r="J15">
-        <v>4323.21</v>
+        <v>2229.6370000000002</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-121</v>
       </c>
       <c r="M15">
-        <v>-21.981999999999999</v>
+        <v>-1.7070000000000001</v>
       </c>
       <c r="N15">
-        <v>238.62899999999999</v>
+        <v>351.38600000000002</v>
       </c>
       <c r="O15">
-        <v>4750.701</v>
+        <v>2727.7049999999999</v>
       </c>
       <c r="P15">
-        <v>4323.21</v>
+        <v>2402.67</v>
       </c>
       <c r="Q15">
-        <v>0.19900000000000001</v>
+        <v>-0.73299999999999998</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3016.6619999999998</v>
+        <v>2898.759</v>
       </c>
       <c r="U15">
-        <v>19.474</v>
+        <v>11.898999999999999</v>
       </c>
       <c r="V15">
-        <v>59.137</v>
+        <v>68.915000000000006</v>
       </c>
       <c r="W15">
-        <v>-62.735999999999997</v>
+        <v>-69.64</v>
       </c>
       <c r="X15">
-        <v>15.968</v>
+        <v>35.026000000000003</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>2.1259999999999999</v>
+        <v>-0.70099999999999996</v>
       </c>
       <c r="AA15">
-        <v>25.236999999999998</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>134.73400000000001</v>
+        <v>43.148000000000003</v>
       </c>
       <c r="D16">
-        <v>335.11900000000003</v>
+        <v>227.38</v>
       </c>
       <c r="E16">
-        <v>200.29900000000001</v>
+        <v>149.92699999999999</v>
       </c>
       <c r="F16">
-        <v>209.643</v>
+        <v>107.31100000000001</v>
       </c>
       <c r="G16">
-        <v>251.304</v>
+        <v>160.71799999999999</v>
       </c>
       <c r="H16">
-        <v>7862.5039999999999</v>
+        <v>5735.1139999999996</v>
       </c>
       <c r="I16">
-        <v>101.792</v>
+        <v>68.771000000000001</v>
       </c>
       <c r="J16">
-        <v>4125.4170000000004</v>
+        <v>2375.6379999999999</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>314.00400000000002</v>
+        <v>356.06900000000002</v>
       </c>
       <c r="O16">
-        <v>4610.6440000000002</v>
+        <v>2869.2869999999998</v>
       </c>
       <c r="P16">
-        <v>4133.8850000000002</v>
+        <v>2529.674</v>
       </c>
       <c r="Q16">
-        <v>1.7509999999999999</v>
+        <v>-1.1080000000000001</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3251.86</v>
+        <v>2865.8270000000002</v>
       </c>
       <c r="U16">
-        <v>21.225000000000001</v>
+        <v>10.791</v>
       </c>
       <c r="V16">
-        <v>144.893</v>
+        <v>95.599000000000004</v>
       </c>
       <c r="W16">
-        <v>-63.369</v>
+        <v>-74.164000000000001</v>
       </c>
       <c r="X16">
-        <v>-88.266000000000005</v>
+        <v>46.844000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>34.002000000000002</v>
+        <v>-1.2170000000000001</v>
       </c>
       <c r="AA16">
-        <v>134.73400000000001</v>
+        <v>43.148000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>70.801000000000002</v>
+        <v>50.847000000000001</v>
       </c>
       <c r="D17">
-        <v>280.98399999999998</v>
+        <v>266.74099999999999</v>
       </c>
       <c r="E17">
-        <v>194.071</v>
+        <v>153.10900000000001</v>
       </c>
       <c r="F17">
-        <v>169.01599999999999</v>
+        <v>135.55500000000001</v>
       </c>
       <c r="G17">
-        <v>295.61700000000002</v>
+        <v>153.10900000000001</v>
       </c>
       <c r="H17">
-        <v>7884.1949999999997</v>
+        <v>5882.08</v>
       </c>
       <c r="I17">
-        <v>93.08</v>
+        <v>83.03</v>
       </c>
       <c r="J17">
-        <v>4204.7439999999997</v>
+        <v>2607.7049999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>280.60000000000002</v>
+        <v>280.18099999999998</v>
       </c>
       <c r="O17">
-        <v>4654.9849999999997</v>
+        <v>3027.83</v>
       </c>
       <c r="P17">
-        <v>4208.5469999999996</v>
+        <v>2659.6289999999999</v>
       </c>
       <c r="Q17">
-        <v>44.906999999999996</v>
+        <v>-10.791</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3229.21</v>
+        <v>2854.25</v>
       </c>
       <c r="U17">
-        <v>66.132000000000005</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>116.96899999999999</v>
+        <v>106.377</v>
       </c>
       <c r="W17">
-        <v>-64.600999999999999</v>
+        <v>-74.451999999999998</v>
       </c>
       <c r="X17">
-        <v>-41.631</v>
+        <v>-9.7690000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>28.052</v>
+        <v>-0.41</v>
       </c>
       <c r="AA17">
-        <v>70.801000000000002</v>
+        <v>50.847000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>12.816000000000001</v>
+        <v>50.606000000000002</v>
       </c>
       <c r="D18">
-        <v>173.678</v>
+        <v>279.25200000000001</v>
       </c>
       <c r="E18">
-        <v>172.04900000000001</v>
+        <v>165.96600000000001</v>
       </c>
       <c r="F18">
-        <v>77.23</v>
+        <v>143.57599999999999</v>
       </c>
       <c r="G18">
-        <v>915.02200000000005</v>
+        <v>171.55500000000001</v>
       </c>
       <c r="H18">
-        <v>7754.8389999999999</v>
+        <v>5896.643</v>
       </c>
       <c r="I18">
-        <v>69.47</v>
+        <v>68.266000000000005</v>
       </c>
       <c r="J18">
-        <v>4412.6390000000001</v>
+        <v>2518.7040000000002</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>322.61200000000002</v>
+        <v>212.059</v>
       </c>
       <c r="O18">
-        <v>4874.9589999999998</v>
+        <v>2875.6610000000001</v>
       </c>
       <c r="P18">
-        <v>4412.6390000000001</v>
+        <v>2518.7040000000002</v>
       </c>
       <c r="Q18">
-        <v>-48.21</v>
+        <v>5.5890000000000004</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="T18">
-        <v>2879.88</v>
+        <v>3020.982</v>
       </c>
       <c r="U18">
-        <v>17.922000000000001</v>
+        <v>5.5890000000000004</v>
       </c>
       <c r="V18">
-        <v>123.488</v>
+        <v>104.648</v>
       </c>
       <c r="W18">
-        <v>-64.915999999999997</v>
+        <v>-74.632999999999996</v>
       </c>
       <c r="X18">
-        <v>-124.88</v>
+        <v>-27.434000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>15.997</v>
+        <v>-0.70499999999999996</v>
       </c>
       <c r="AA18">
-        <v>12.816000000000001</v>
+        <v>50.606000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>65.244</v>
+        <v>37.100999999999999</v>
       </c>
       <c r="D19">
-        <v>272.18200000000002</v>
+        <v>267.13600000000002</v>
       </c>
       <c r="E19">
-        <v>184.45599999999999</v>
+        <v>181.43299999999999</v>
       </c>
       <c r="F19">
-        <v>158.227</v>
+        <v>139.114</v>
       </c>
       <c r="G19">
-        <v>1042.28</v>
+        <v>185.11199999999999</v>
       </c>
       <c r="H19">
-        <v>7730.5039999999999</v>
+        <v>5945.8770000000004</v>
       </c>
       <c r="I19">
-        <v>46.722999999999999</v>
+        <v>66.894000000000005</v>
       </c>
       <c r="J19">
-        <v>4444.3680000000004</v>
+        <v>2623.7530000000002</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-313.69499999999999</v>
+        <v>-166.697</v>
       </c>
       <c r="N19">
-        <v>255.358</v>
+        <v>185.756</v>
       </c>
       <c r="O19">
-        <v>4836.3209999999999</v>
+        <v>2954.6480000000001</v>
       </c>
       <c r="P19">
-        <v>4444.3680000000004</v>
+        <v>2623.7530000000002</v>
       </c>
       <c r="Q19">
-        <v>-0.11600000000000001</v>
+        <v>-1.91</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2894.183</v>
+        <v>2991.2289999999998</v>
       </c>
       <c r="U19">
-        <v>17.806000000000001</v>
+        <v>3.6789999999999998</v>
       </c>
       <c r="V19">
-        <v>42.677999999999997</v>
+        <v>64.850999999999999</v>
       </c>
       <c r="W19">
-        <v>-58.606999999999999</v>
+        <v>-78.075999999999993</v>
       </c>
       <c r="X19">
-        <v>-20.181999999999999</v>
+        <v>20.885999999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-47.524999999999999</v>
+        <v>-6.4409999999999998</v>
       </c>
       <c r="AA19">
-        <v>65.244</v>
+        <v>37.100999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>449.38</v>
+        <v>51.918999999999997</v>
       </c>
       <c r="D20">
-        <v>229.02</v>
+        <v>292.024</v>
       </c>
       <c r="E20">
-        <v>148.43299999999999</v>
+        <v>186.24600000000001</v>
       </c>
       <c r="F20">
-        <v>148.136</v>
+        <v>112.229</v>
       </c>
       <c r="G20">
-        <v>241.071</v>
+        <v>192.733</v>
       </c>
       <c r="H20">
-        <v>7114.5209999999997</v>
+        <v>6204.1450000000004</v>
       </c>
       <c r="I20">
-        <v>63.396000000000001</v>
+        <v>77.034000000000006</v>
       </c>
       <c r="J20">
-        <v>3443.29</v>
+        <v>2875.5079999999998</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>237.375</v>
+        <v>219.78899999999999</v>
       </c>
       <c r="O20">
-        <v>3822.6779999999999</v>
+        <v>3256.4810000000002</v>
       </c>
       <c r="P20">
-        <v>3460.7429999999999</v>
+        <v>2875.5079999999998</v>
       </c>
       <c r="Q20">
-        <v>2.448</v>
+        <v>2.8079999999999998</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3291.8429999999998</v>
+        <v>2947.6640000000002</v>
       </c>
       <c r="U20">
-        <v>20.254000000000001</v>
+        <v>6.4870000000000001</v>
       </c>
       <c r="V20">
-        <v>132.97399999999999</v>
+        <v>129.46700000000001</v>
       </c>
       <c r="W20">
-        <v>-58.667000000000002</v>
+        <v>-78.338999999999999</v>
       </c>
       <c r="X20">
-        <v>-1171.6849999999999</v>
+        <v>156.37</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>64.320999999999998</v>
+        <v>-1.661</v>
       </c>
       <c r="AA20">
-        <v>449.38</v>
+        <v>51.918999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>76.433999999999997</v>
+        <v>224.96700000000001</v>
       </c>
       <c r="D21">
-        <v>237.34899999999999</v>
+        <v>292.01600000000002</v>
       </c>
       <c r="E21">
-        <v>162.446</v>
+        <v>184.07900000000001</v>
       </c>
       <c r="F21">
-        <v>144.15600000000001</v>
+        <v>126.05500000000001</v>
       </c>
       <c r="G21">
-        <v>347.24</v>
+        <v>308.94600000000003</v>
       </c>
       <c r="H21">
-        <v>7139.9089999999997</v>
+        <v>5657.0320000000002</v>
       </c>
       <c r="I21">
-        <v>66.709000000000003</v>
+        <v>100.512</v>
       </c>
       <c r="J21">
-        <v>3443.0419999999999</v>
+        <v>2219.3040000000001</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>234.983</v>
+        <v>243.52799999999999</v>
       </c>
       <c r="O21">
-        <v>3828.4659999999999</v>
+        <v>2628.6840000000002</v>
       </c>
       <c r="P21">
-        <v>3446.02</v>
+        <v>2219.3040000000001</v>
       </c>
       <c r="Q21">
-        <v>155.62</v>
+        <v>118.38</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3311.4430000000002</v>
+        <v>3028.348</v>
       </c>
       <c r="U21">
-        <v>175.874</v>
+        <v>124.867</v>
       </c>
       <c r="V21">
-        <v>102.566</v>
+        <v>129.584</v>
       </c>
       <c r="W21">
-        <v>-58.692999999999998</v>
+        <v>-79.039000000000001</v>
       </c>
       <c r="X21">
-        <v>-75.808000000000007</v>
+        <v>-837.14300000000003</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-2.9009999999999998</v>
+        <v>-1.1040000000000001</v>
       </c>
       <c r="AA21">
-        <v>76.433999999999997</v>
+        <v>224.96700000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>24.251999999999999</v>
+        <v>41.674999999999997</v>
       </c>
       <c r="D22">
-        <v>223.87799999999999</v>
+        <v>247.63499999999999</v>
       </c>
       <c r="E22">
-        <v>152.08600000000001</v>
+        <v>177.32499999999999</v>
       </c>
       <c r="F22">
-        <v>145.69499999999999</v>
+        <v>109.093</v>
       </c>
       <c r="G22">
-        <v>636.46900000000005</v>
+        <v>204.05699999999999</v>
       </c>
       <c r="H22">
-        <v>6895.5150000000003</v>
+        <v>5647.56</v>
       </c>
       <c r="I22">
-        <v>54.920999999999999</v>
+        <v>93.137</v>
       </c>
       <c r="J22">
-        <v>3320.1410000000001</v>
+        <v>2600.6509999999998</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,161 +2552,161 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>223.78399999999999</v>
+        <v>241.92</v>
       </c>
       <c r="O22">
-        <v>3690.7139999999999</v>
+        <v>3012.1959999999999</v>
       </c>
       <c r="P22">
-        <v>3320.1410000000001</v>
+        <v>2600.6509999999998</v>
       </c>
       <c r="Q22">
-        <v>-153.34100000000001</v>
+        <v>-98.135000000000005</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T22">
-        <v>3204.8009999999999</v>
+        <v>2635.364</v>
       </c>
       <c r="U22">
-        <v>22.533000000000001</v>
+        <v>26.731999999999999</v>
       </c>
       <c r="V22">
-        <v>101.163</v>
+        <v>80.356999999999999</v>
       </c>
       <c r="W22">
-        <v>-62.146999999999998</v>
+        <v>-76.004999999999995</v>
       </c>
       <c r="X22">
-        <v>-228.39400000000001</v>
+        <v>-51.290999999999997</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-17.317</v>
+        <v>-22.393000000000001</v>
       </c>
       <c r="AA22">
-        <v>24.251999999999999</v>
+        <v>41.674999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>43.307000000000002</v>
+        <v>26.792999999999999</v>
       </c>
       <c r="D23">
-        <v>187.59800000000001</v>
+        <v>257.71499999999997</v>
       </c>
       <c r="E23">
-        <v>155.29400000000001</v>
+        <v>173.02</v>
       </c>
       <c r="F23">
-        <v>121.154</v>
+        <v>125.875</v>
       </c>
       <c r="G23">
-        <v>235.095</v>
+        <v>173.02</v>
       </c>
       <c r="H23">
-        <v>6896.96</v>
+        <v>6704.0190000000002</v>
       </c>
       <c r="I23">
-        <v>55.121000000000002</v>
+        <v>93.16</v>
       </c>
       <c r="J23">
-        <v>3381.06</v>
+        <v>2622.7919999999999</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>-8.6929999999999996</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-16.956</v>
+        <v>-101.80800000000001</v>
       </c>
       <c r="N23">
-        <v>189.946</v>
+        <v>1222.3209999999999</v>
       </c>
       <c r="O23">
-        <v>3706.8429999999998</v>
+        <v>3999.556</v>
       </c>
       <c r="P23">
-        <v>3381.06</v>
+        <v>3621.6489999999999</v>
       </c>
       <c r="Q23">
-        <v>-6.8929999999999998</v>
+        <v>-26.731999999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3190.1170000000002</v>
+        <v>2704.4630000000002</v>
       </c>
       <c r="U23">
-        <v>15.64</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>72.870999999999995</v>
+        <v>28.8</v>
       </c>
       <c r="W23">
-        <v>-62.262</v>
+        <v>-76.394999999999996</v>
       </c>
       <c r="X23">
-        <v>-17.155000000000001</v>
+        <v>882.68899999999996</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>6.2149999999999999</v>
+        <v>11.427</v>
       </c>
       <c r="AA23">
-        <v>43.307000000000002</v>
+        <v>26.792999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>109.06699999999999</v>
+        <v>34.972000000000001</v>
       </c>
       <c r="D24">
-        <v>188.988</v>
+        <v>253.78800000000001</v>
       </c>
       <c r="E24">
-        <v>154.97200000000001</v>
+        <v>167.45400000000001</v>
       </c>
       <c r="F24">
-        <v>124.846</v>
+        <v>135.67099999999999</v>
       </c>
       <c r="G24">
-        <v>250.13399999999999</v>
+        <v>174.49299999999999</v>
       </c>
       <c r="H24">
-        <v>6865.0249999999996</v>
+        <v>7014.473</v>
       </c>
       <c r="I24">
-        <v>46.1</v>
+        <v>88.864000000000004</v>
       </c>
       <c r="J24">
-        <v>3197.7809999999999</v>
+        <v>2852.5</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>191.03700000000001</v>
+        <v>1220.386</v>
       </c>
       <c r="O24">
-        <v>3524.8159999999998</v>
+        <v>4229.7809999999999</v>
       </c>
       <c r="P24">
-        <v>3197.7809999999999</v>
+        <v>3833.9340000000002</v>
       </c>
       <c r="Q24">
-        <v>76.06</v>
+        <v>7.0389999999999997</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3340.2089999999998</v>
+        <v>2784.692</v>
       </c>
       <c r="U24">
-        <v>91.7</v>
+        <v>7.0389999999999997</v>
       </c>
       <c r="V24">
-        <v>125.33</v>
+        <v>55.523000000000003</v>
       </c>
       <c r="W24">
-        <v>-62.389000000000003</v>
+        <v>-76.647000000000006</v>
       </c>
       <c r="X24">
-        <v>-153.36600000000001</v>
+        <v>163.24600000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-20.841999999999999</v>
+        <v>15.132</v>
       </c>
       <c r="AA24">
-        <v>109.06699999999999</v>
+        <v>34.972000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>112.014</v>
+        <v>76.959999999999994</v>
       </c>
       <c r="D25">
-        <v>184.983</v>
+        <v>312.089</v>
       </c>
       <c r="E25">
-        <v>153.30199999999999</v>
+        <v>189.958</v>
       </c>
       <c r="F25">
-        <v>124.867</v>
+        <v>143.297</v>
       </c>
       <c r="G25">
-        <v>281.697</v>
+        <v>214.958</v>
       </c>
       <c r="H25">
-        <v>6862.0810000000001</v>
+        <v>7273.5420000000004</v>
       </c>
       <c r="I25">
-        <v>51.338999999999999</v>
+        <v>125.381</v>
       </c>
       <c r="J25">
-        <v>2991.0509999999999</v>
+        <v>3797.681</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>217.214</v>
+        <v>561.447</v>
       </c>
       <c r="O25">
-        <v>3353.1590000000001</v>
+        <v>4502.8559999999998</v>
       </c>
       <c r="P25">
-        <v>2991.0509999999999</v>
+        <v>4075.683</v>
       </c>
       <c r="Q25">
-        <v>18.510999999999999</v>
+        <v>17.960999999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>3508.922</v>
+        <v>2770.6860000000001</v>
       </c>
       <c r="U25">
-        <v>110.211</v>
+        <v>25</v>
       </c>
       <c r="V25">
-        <v>156.22900000000001</v>
+        <v>24.155000000000001</v>
       </c>
       <c r="W25">
-        <v>-63.234000000000002</v>
+        <v>-79.406999999999996</v>
       </c>
       <c r="X25">
-        <v>-160.52099999999999</v>
+        <v>139.29</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>12.288</v>
+        <v>-0.45600000000000002</v>
       </c>
       <c r="AA25">
-        <v>112.014</v>
+        <v>76.959999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>47.755000000000003</v>
+        <v>65.421999999999997</v>
       </c>
       <c r="D26">
-        <v>184.745</v>
+        <v>333.09800000000001</v>
       </c>
       <c r="E26">
-        <v>104.551</v>
+        <v>194.20500000000001</v>
       </c>
       <c r="F26">
-        <v>128.89500000000001</v>
+        <v>177.387</v>
       </c>
       <c r="G26">
-        <v>1672.5129999999999</v>
+        <v>262.68799999999999</v>
       </c>
       <c r="H26">
-        <v>6772.0020000000004</v>
+        <v>7238.5950000000003</v>
       </c>
       <c r="I26">
-        <v>44.25</v>
+        <v>136.50800000000001</v>
       </c>
       <c r="J26">
-        <v>2908.4769999999999</v>
+        <v>3961.8449999999998</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>183.286</v>
+        <v>311.10700000000003</v>
       </c>
       <c r="O26">
-        <v>3278.7089999999998</v>
+        <v>4578.1589999999997</v>
       </c>
       <c r="P26">
-        <v>2908.4769999999999</v>
+        <v>3961.8449999999998</v>
       </c>
       <c r="Q26">
-        <v>-97.572000000000003</v>
+        <v>43.482999999999997</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T26">
-        <v>3493.2930000000001</v>
+        <v>2660.4360000000001</v>
       </c>
       <c r="U26">
-        <v>12.638999999999999</v>
+        <v>68.483000000000004</v>
       </c>
       <c r="V26">
-        <v>102.80800000000001</v>
+        <v>164.411</v>
       </c>
       <c r="W26">
-        <v>-67.394000000000005</v>
+        <v>-79.471999999999994</v>
       </c>
       <c r="X26">
-        <v>-160.994</v>
+        <v>-182.303</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>70.475999999999999</v>
+        <v>220.28800000000001</v>
       </c>
       <c r="AA26">
-        <v>47.755000000000003</v>
+        <v>65.421999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>70.2</v>
+        <v>83.789000000000001</v>
       </c>
       <c r="D27">
-        <v>184.024</v>
+        <v>272.089</v>
       </c>
       <c r="E27">
-        <v>140.173</v>
+        <v>184.971</v>
       </c>
       <c r="F27">
-        <v>133.65199999999999</v>
+        <v>142.05799999999999</v>
       </c>
       <c r="G27">
-        <v>501.84500000000003</v>
+        <v>194.46299999999999</v>
       </c>
       <c r="H27">
-        <v>6958.51</v>
+        <v>7272.4849999999997</v>
       </c>
       <c r="I27">
-        <v>67.004000000000005</v>
+        <v>118.735</v>
       </c>
       <c r="J27">
-        <v>3080.2620000000002</v>
+        <v>3968.8020000000001</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-18.155000000000001</v>
+        <v>-12.007</v>
       </c>
       <c r="N27">
-        <v>168.4</v>
+        <v>255.405</v>
       </c>
       <c r="O27">
-        <v>3460.63</v>
+        <v>4526.9989999999998</v>
       </c>
       <c r="P27">
-        <v>3080.2620000000002</v>
+        <v>3968.8020000000001</v>
       </c>
       <c r="Q27">
-        <v>22.539000000000001</v>
+        <v>-58.991</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3497.88</v>
+        <v>2745.4859999999999</v>
       </c>
       <c r="U27">
-        <v>13.388999999999999</v>
+        <v>9.4920000000000009</v>
       </c>
       <c r="V27">
-        <v>109.708</v>
+        <v>12.135</v>
       </c>
       <c r="W27">
-        <v>-67.554000000000002</v>
+        <v>-80.23</v>
       </c>
       <c r="X27">
-        <v>101.697</v>
+        <v>-79.501999999999995</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>4.5609999999999999</v>
+        <v>20.36</v>
       </c>
       <c r="AA27">
-        <v>70.2</v>
+        <v>83.789000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>52.302</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>278.709</v>
       </c>
       <c r="E28">
-        <v>119.678</v>
+        <v>176.24</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>146.07599999999999</v>
       </c>
       <c r="G28">
-        <v>1672.732</v>
+        <v>221.696</v>
       </c>
       <c r="H28">
-        <v>7317.5690000000004</v>
+        <v>7302.8980000000001</v>
       </c>
       <c r="I28">
-        <v>73.748999999999995</v>
+        <v>126.39700000000001</v>
       </c>
       <c r="J28">
-        <v>2280.1280000000002</v>
+        <v>4078.902</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>162.333</v>
+        <v>287.30599999999998</v>
       </c>
       <c r="O28">
-        <v>2654.1129999999998</v>
+        <v>4573.5720000000001</v>
       </c>
       <c r="P28">
-        <v>2280.1280000000002</v>
+        <v>4078.902</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>35.963999999999999</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>4663.4560000000001</v>
+        <v>2729.326</v>
       </c>
       <c r="U28">
-        <v>76.325999999999993</v>
+        <v>45.456000000000003</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>69.347999999999999</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>-80.272000000000006</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>25.427</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>105.717</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>52.302</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>165.26900000000001</v>
+        <v>68.614000000000004</v>
       </c>
       <c r="D29">
-        <v>196.66900000000001</v>
+        <v>293.81</v>
       </c>
       <c r="E29">
-        <v>121.99299999999999</v>
+        <v>193.21700000000001</v>
       </c>
       <c r="F29">
-        <v>128.209</v>
+        <v>142.95400000000001</v>
       </c>
       <c r="G29">
-        <v>1341.19</v>
+        <v>211.64099999999999</v>
       </c>
       <c r="H29">
-        <v>7297.4709999999995</v>
+        <v>7416.8419999999996</v>
       </c>
       <c r="I29">
-        <v>70.432000000000002</v>
+        <v>140.679</v>
       </c>
       <c r="J29">
-        <v>2131.88</v>
+        <v>4063.172</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>180.78399999999999</v>
+        <v>415.76400000000001</v>
       </c>
       <c r="O29">
-        <v>2544.096</v>
+        <v>4679.2389999999996</v>
       </c>
       <c r="P29">
-        <v>2131.88</v>
+        <v>4165.6819999999998</v>
       </c>
       <c r="Q29">
-        <v>-401.65899999999999</v>
+        <v>-27.032</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>4753.375</v>
+        <v>2737.6030000000001</v>
       </c>
       <c r="U29">
-        <v>27.315000000000001</v>
+        <v>18.423999999999999</v>
       </c>
       <c r="V29">
-        <v>130.53700000000001</v>
+        <v>53.831000000000003</v>
       </c>
       <c r="W29">
-        <v>-67.638999999999996</v>
+        <v>-80.975999999999999</v>
       </c>
       <c r="X29">
-        <v>-218.34299999999999</v>
+        <v>13.866</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-4.1859999999999999</v>
+        <v>-22.992999999999999</v>
       </c>
       <c r="AA29">
-        <v>165.26900000000001</v>
+        <v>68.614000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>188.41900000000001</v>
+        <v>74.762</v>
       </c>
       <c r="D30">
-        <v>166.506</v>
+        <v>353.54700000000003</v>
       </c>
       <c r="E30">
-        <v>125.91200000000001</v>
+        <v>206.67099999999999</v>
       </c>
       <c r="F30">
-        <v>86.116</v>
+        <v>192.232</v>
       </c>
       <c r="G30">
-        <v>940.971</v>
+        <v>254.68299999999999</v>
       </c>
       <c r="H30">
-        <v>7388.1959999999999</v>
+        <v>7661.9809999999998</v>
       </c>
       <c r="I30">
-        <v>54.545000000000002</v>
+        <v>142.655</v>
       </c>
       <c r="J30">
-        <v>2422.8910000000001</v>
+        <v>4316.46</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,161 +3216,161 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>140.99299999999999</v>
+        <v>320.303</v>
       </c>
       <c r="O30">
-        <v>2813.8180000000002</v>
+        <v>4828.2650000000003</v>
       </c>
       <c r="P30">
-        <v>2422.8910000000001</v>
+        <v>4316.46</v>
       </c>
       <c r="Q30">
-        <v>-372.68200000000002</v>
+        <v>29.588000000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="T30">
-        <v>4574.3779999999997</v>
+        <v>2833.7159999999999</v>
       </c>
       <c r="U30">
-        <v>67.561999999999998</v>
+        <v>48.012</v>
       </c>
       <c r="V30">
-        <v>88.331000000000003</v>
+        <v>188.61699999999999</v>
       </c>
       <c r="W30">
-        <v>-71.228999999999999</v>
+        <v>-82.512</v>
       </c>
       <c r="X30">
-        <v>-75.915999999999997</v>
+        <v>130.626</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>9.3010000000000002</v>
+        <v>-9.66</v>
       </c>
       <c r="AA30">
-        <v>188.41900000000001</v>
+        <v>74.762</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>72.962999999999994</v>
+        <v>17.838999999999999</v>
       </c>
       <c r="D31">
-        <v>236.64400000000001</v>
+        <v>306.017</v>
       </c>
       <c r="E31">
-        <v>135.89699999999999</v>
+        <v>214.03800000000001</v>
       </c>
       <c r="F31">
-        <v>145.17599999999999</v>
+        <v>150.083</v>
       </c>
       <c r="G31">
-        <v>937.76300000000003</v>
+        <v>229.56700000000001</v>
       </c>
       <c r="H31">
-        <v>7427.674</v>
+        <v>7760.2430000000004</v>
       </c>
       <c r="I31">
-        <v>53.338999999999999</v>
+        <v>129.631</v>
       </c>
       <c r="J31">
-        <v>2496.4560000000001</v>
+        <v>4143.5889999999999</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-33.448</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-2.0009999999999999</v>
+        <v>-161.53200000000001</v>
       </c>
       <c r="N31">
-        <v>153.066</v>
+        <v>390.51299999999998</v>
       </c>
       <c r="O31">
-        <v>2846.49</v>
+        <v>4703.9709999999995</v>
       </c>
       <c r="P31">
-        <v>2496.4560000000001</v>
+        <v>4262.1390000000001</v>
       </c>
       <c r="Q31">
-        <v>34.735999999999997</v>
+        <v>-32.482999999999997</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>4581.1840000000002</v>
+        <v>3056.2719999999999</v>
       </c>
       <c r="U31">
-        <v>160.86099999999999</v>
+        <v>15.529</v>
       </c>
       <c r="V31">
-        <v>113.16200000000001</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="W31">
-        <v>-71.397999999999996</v>
+        <v>-85.516999999999996</v>
       </c>
       <c r="X31">
-        <v>-40.090000000000003</v>
+        <v>119.572</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>9.4039999999999999</v>
+        <v>18.457000000000001</v>
       </c>
       <c r="AA31">
-        <v>72.962999999999994</v>
+        <v>17.838999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>35.122999999999998</v>
       </c>
       <c r="D32">
-        <v>212.27799999999999</v>
+        <v>312.74200000000002</v>
       </c>
       <c r="E32">
-        <v>129.91900000000001</v>
+        <v>232.06700000000001</v>
       </c>
       <c r="F32">
-        <v>149.452</v>
+        <v>153.40299999999999</v>
       </c>
       <c r="G32">
-        <v>823.68100000000004</v>
+        <v>249.77099999999999</v>
       </c>
       <c r="H32">
-        <v>7502.8180000000002</v>
+        <v>7833.0690000000004</v>
       </c>
       <c r="I32">
-        <v>93.515000000000001</v>
+        <v>139.11000000000001</v>
       </c>
       <c r="J32">
-        <v>2417.4290000000001</v>
+        <v>4331.3459999999995</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>187.05699999999999</v>
+        <v>321.18299999999999</v>
       </c>
       <c r="O32">
-        <v>2793.848</v>
+        <v>4823.1549999999997</v>
       </c>
       <c r="P32">
-        <v>2417.4290000000001</v>
+        <v>4346.8220000000001</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>4708.97</v>
+        <v>3009.9140000000002</v>
       </c>
       <c r="U32">
-        <v>86.338999999999999</v>
+        <v>17.704000000000001</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>115.634</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>-89.287999999999997</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>-12.225</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>5.9809999999999999</v>
       </c>
       <c r="AA32">
-        <v>193.845</v>
+        <v>35.122999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>53.024999999999999</v>
+        <v>30.356000000000002</v>
       </c>
       <c r="D33">
-        <v>235.44200000000001</v>
+        <v>308.78399999999999</v>
       </c>
       <c r="E33">
-        <v>155.673</v>
+        <v>236.19200000000001</v>
       </c>
       <c r="F33">
-        <v>152.929</v>
+        <v>138.834</v>
       </c>
       <c r="G33">
-        <v>933.19799999999998</v>
+        <v>239.66200000000001</v>
       </c>
       <c r="H33">
-        <v>7824.81</v>
+        <v>7842.8639999999996</v>
       </c>
       <c r="I33">
-        <v>100.32299999999999</v>
+        <v>125.157</v>
       </c>
       <c r="J33">
-        <v>2634.1759999999999</v>
+        <v>4387.2460000000001</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>218.06299999999999</v>
+        <v>321.7</v>
       </c>
       <c r="O33">
-        <v>3099.886</v>
+        <v>4885.6170000000002</v>
       </c>
       <c r="P33">
-        <v>2634.1759999999999</v>
+        <v>4399.7430000000004</v>
       </c>
       <c r="Q33">
-        <v>30.158999999999999</v>
+        <v>-14.234</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>4724.924</v>
+        <v>2957.2469999999998</v>
       </c>
       <c r="U33">
-        <v>133.405</v>
+        <v>3.47</v>
       </c>
       <c r="V33">
-        <v>141.03100000000001</v>
+        <v>211.40700000000001</v>
       </c>
       <c r="W33">
-        <v>-71.656000000000006</v>
+        <v>-90.131</v>
       </c>
       <c r="X33">
-        <v>230.67500000000001</v>
+        <v>-52.476999999999997</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>1.6259999999999999</v>
+        <v>-37.645000000000003</v>
       </c>
       <c r="AA33">
-        <v>53.024999999999999</v>
+        <v>30.356000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>63.896000000000001</v>
+        <v>24.47</v>
       </c>
       <c r="D34">
-        <v>271.166</v>
+        <v>381.85700000000003</v>
       </c>
       <c r="E34">
-        <v>164.803</v>
+        <v>226.989</v>
       </c>
       <c r="F34">
-        <v>157.35900000000001</v>
+        <v>155.119</v>
       </c>
       <c r="G34">
-        <v>637.28200000000004</v>
+        <v>249.52099999999999</v>
       </c>
       <c r="H34">
-        <v>7804.0240000000003</v>
+        <v>7690.8829999999998</v>
       </c>
       <c r="I34">
-        <v>92.287999999999997</v>
+        <v>105.227</v>
       </c>
       <c r="J34">
-        <v>2658.5010000000002</v>
+        <v>4276.99</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>181.79900000000001</v>
+        <v>285.14499999999998</v>
       </c>
       <c r="O34">
-        <v>3090.7809999999999</v>
+        <v>4790.9080000000004</v>
       </c>
       <c r="P34">
-        <v>2658.5010000000002</v>
+        <v>4276.99</v>
       </c>
       <c r="Q34">
-        <v>-247.28399999999999</v>
+        <v>19.062000000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="T34">
-        <v>4713.2430000000004</v>
+        <v>2899.9749999999999</v>
       </c>
       <c r="U34">
-        <v>17.901</v>
+        <v>22.532</v>
       </c>
       <c r="V34">
-        <v>112.758</v>
+        <v>313.58300000000003</v>
       </c>
       <c r="W34">
-        <v>-77.039000000000001</v>
+        <v>-89.878</v>
       </c>
       <c r="X34">
-        <v>-95.195999999999998</v>
+        <v>-200.60499999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0.76500000000000001</v>
+        <v>-23.645</v>
       </c>
       <c r="AA34">
-        <v>63.896000000000001</v>
+        <v>24.47</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>44.551000000000002</v>
+        <v>41.61</v>
       </c>
       <c r="D35">
-        <v>267.14400000000001</v>
+        <v>324.89999999999998</v>
       </c>
       <c r="E35">
-        <v>153.80099999999999</v>
+        <v>220.84100000000001</v>
       </c>
       <c r="F35">
-        <v>161.44800000000001</v>
+        <v>143.446</v>
       </c>
       <c r="G35">
-        <v>588.28099999999995</v>
+        <v>243.012</v>
       </c>
       <c r="H35">
-        <v>7962.48</v>
+        <v>7676.4189999999999</v>
       </c>
       <c r="I35">
-        <v>76.38</v>
+        <v>100.361</v>
       </c>
       <c r="J35">
-        <v>2826.8240000000001</v>
+        <v>4332.91</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-42.664999999999999</v>
+        <v>-257.03899999999999</v>
       </c>
       <c r="N35">
-        <v>189.44900000000001</v>
+        <v>247.31200000000001</v>
       </c>
       <c r="O35">
-        <v>3281.3090000000002</v>
+        <v>4784.3230000000003</v>
       </c>
       <c r="P35">
-        <v>2885.3139999999999</v>
+        <v>4332.91</v>
       </c>
       <c r="Q35">
-        <v>-3.3490000000000002</v>
+        <v>-0.36099999999999999</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>4681.1710000000003</v>
+        <v>2892.096</v>
       </c>
       <c r="U35">
-        <v>15.295</v>
+        <v>22.170999999999999</v>
       </c>
       <c r="V35">
-        <v>114.559</v>
+        <v>48.427999999999997</v>
       </c>
       <c r="W35">
-        <v>-77.236999999999995</v>
+        <v>-55.488</v>
       </c>
       <c r="X35">
-        <v>88.397999999999996</v>
+        <v>33.74</v>
       </c>
       <c r="Y35">
-        <v>39.853999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-6.4740000000000002</v>
+        <v>-3.863</v>
       </c>
       <c r="AA35">
-        <v>44.551000000000002</v>
+        <v>41.61</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>-13.7</v>
       </c>
       <c r="D36">
-        <v>239.14099999999999</v>
+        <v>348.61700000000002</v>
       </c>
       <c r="E36">
-        <v>163.834</v>
+        <v>218.453</v>
       </c>
       <c r="F36">
-        <v>165.98</v>
+        <v>148.44900000000001</v>
       </c>
       <c r="G36">
-        <v>511.63900000000001</v>
+        <v>245.15199999999999</v>
       </c>
       <c r="H36">
-        <v>8014.1270000000004</v>
+        <v>7595.3959999999997</v>
       </c>
       <c r="I36">
-        <v>67.061999999999998</v>
+        <v>96.632000000000005</v>
       </c>
       <c r="J36">
-        <v>2838.9749999999999</v>
+        <v>3732.06</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>194.756</v>
+        <v>273.291</v>
       </c>
       <c r="O36">
-        <v>3312.0059999999999</v>
+        <v>4218.4409999999998</v>
       </c>
       <c r="P36">
-        <v>2911.375</v>
+        <v>3737.8960000000002</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>4.5279999999999996</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>4702.1210000000001</v>
+        <v>3376.9549999999999</v>
       </c>
       <c r="U36">
-        <v>8.6639999999999997</v>
+        <v>26.699000000000002</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>139.328</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>-56.414000000000001</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>-102.72199999999999</v>
       </c>
       <c r="Y36">
-        <v>43.7</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-2.448</v>
       </c>
       <c r="AA36">
-        <v>71.052999999999997</v>
+        <v>-12.17</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>226.566</v>
+        <v>-302.98899999999998</v>
       </c>
       <c r="D37">
-        <v>244.733</v>
+        <v>322.32600000000002</v>
       </c>
       <c r="E37">
-        <v>168.32400000000001</v>
+        <v>189.089</v>
       </c>
       <c r="F37">
-        <v>170.196</v>
+        <v>147.85300000000001</v>
       </c>
       <c r="G37">
-        <v>756.10599999999999</v>
+        <v>345.00299999999999</v>
       </c>
       <c r="H37">
-        <v>8262.9539999999997</v>
+        <v>7438.9459999999999</v>
       </c>
       <c r="I37">
-        <v>70.31</v>
+        <v>66.790000000000006</v>
       </c>
       <c r="J37">
-        <v>2767.5819999999999</v>
+        <v>3847.8969999999999</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>230.81399999999999</v>
+        <v>342.541</v>
       </c>
       <c r="O37">
-        <v>3241.6819999999998</v>
+        <v>4431.0060000000003</v>
       </c>
       <c r="P37">
-        <v>2854.7069999999999</v>
+        <v>3932.6030000000001</v>
       </c>
       <c r="Q37">
-        <v>233.505</v>
+        <v>129.215</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>5021.2719999999999</v>
+        <v>3007.94</v>
       </c>
       <c r="U37">
-        <v>121.233</v>
+        <v>155.91399999999999</v>
       </c>
       <c r="V37">
-        <v>146.29499999999999</v>
+        <v>116.002</v>
       </c>
       <c r="W37">
-        <v>-77.772999999999996</v>
+        <v>-56.438000000000002</v>
       </c>
       <c r="X37">
-        <v>-0.625</v>
+        <v>118.008</v>
       </c>
       <c r="Y37">
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>2.6629999999999998</v>
+        <v>-11.231</v>
       </c>
       <c r="AA37">
-        <v>226.566</v>
+        <v>-304.51900000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>86.802000000000007</v>
+        <v>14.929</v>
       </c>
       <c r="D38">
-        <v>232.90700000000001</v>
+        <v>305.79399999999998</v>
       </c>
       <c r="E38">
-        <v>175.3</v>
+        <v>171.29300000000001</v>
       </c>
       <c r="F38">
-        <v>169.631</v>
+        <v>130.76400000000001</v>
       </c>
       <c r="G38">
-        <v>425.19400000000002</v>
+        <v>318.61500000000001</v>
       </c>
       <c r="H38">
-        <v>8420.5619999999999</v>
+        <v>7304.2790000000005</v>
       </c>
       <c r="I38">
-        <v>68.84</v>
+        <v>43.146999999999998</v>
       </c>
       <c r="J38">
-        <v>2914.7649999999999</v>
+        <v>3854.0320000000002</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,161 +3880,161 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>152.94999999999999</v>
+        <v>239.22300000000001</v>
       </c>
       <c r="O38">
-        <v>3340.3020000000001</v>
+        <v>4336.4189999999999</v>
       </c>
       <c r="P38">
-        <v>2961.665</v>
+        <v>3854.0320000000002</v>
       </c>
       <c r="Q38">
-        <v>-129.101</v>
+        <v>-8.5920000000000005</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T38">
-        <v>5080.26</v>
+        <v>2967.86</v>
       </c>
       <c r="U38">
-        <v>110.89100000000001</v>
+        <v>147.322</v>
       </c>
       <c r="V38">
-        <v>101.81100000000001</v>
+        <v>96.713999999999999</v>
       </c>
       <c r="W38">
-        <v>-86.379000000000005</v>
+        <v>-56.444000000000003</v>
       </c>
       <c r="X38">
-        <v>80.334000000000003</v>
+        <v>-148.76</v>
       </c>
       <c r="Y38">
-        <v>46.9</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-4.9249999999999998</v>
+        <v>-5.9390000000000001</v>
       </c>
       <c r="AA38">
-        <v>86.802000000000007</v>
+        <v>14.929</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>19.456</v>
+        <v>3.0990000000000002</v>
       </c>
       <c r="D39">
-        <v>228.90799999999999</v>
+        <v>330.06599999999997</v>
       </c>
       <c r="E39">
-        <v>179.96</v>
+        <v>194.91800000000001</v>
       </c>
       <c r="F39">
-        <v>166.77</v>
+        <v>143.34899999999999</v>
       </c>
       <c r="G39">
-        <v>370.44299999999998</v>
+        <v>225.917</v>
       </c>
       <c r="H39">
-        <v>8574.2839999999997</v>
+        <v>7092.268</v>
       </c>
       <c r="I39">
-        <v>89.635000000000005</v>
+        <v>58.567999999999998</v>
       </c>
       <c r="J39">
-        <v>3146.6109999999999</v>
+        <v>3740.3330000000001</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>-14.444000000000001</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-317.53100000000001</v>
+        <v>-117.35299999999999</v>
       </c>
       <c r="N39">
-        <v>186.179</v>
+        <v>203.899</v>
       </c>
       <c r="O39">
-        <v>3547.2220000000002</v>
+        <v>4175.08</v>
       </c>
       <c r="P39">
-        <v>3146.6109999999999</v>
+        <v>3740.3330000000001</v>
       </c>
       <c r="Q39">
-        <v>69.052000000000007</v>
+        <v>-116.32299999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>5027.0619999999999</v>
+        <v>2917.1880000000001</v>
       </c>
       <c r="U39">
-        <v>187.56299999999999</v>
+        <v>30.998999999999999</v>
       </c>
       <c r="V39">
-        <v>114.55</v>
+        <v>20.196999999999999</v>
       </c>
       <c r="W39">
-        <v>-86.561999999999998</v>
+        <v>-56.484999999999999</v>
       </c>
       <c r="X39">
-        <v>113.18300000000001</v>
+        <v>-172.37</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>-2.3530000000000002</v>
+        <v>-7.9859999999999998</v>
       </c>
       <c r="AA39">
-        <v>19.456</v>
+        <v>3.0990000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>-19.536000000000001</v>
       </c>
       <c r="D40">
-        <v>241.24100000000001</v>
+        <v>373.10899999999998</v>
       </c>
       <c r="E40">
-        <v>208.88900000000001</v>
+        <v>211.858</v>
       </c>
       <c r="F40">
-        <v>176.51499999999999</v>
+        <v>140.80600000000001</v>
       </c>
       <c r="G40">
-        <v>267.48500000000001</v>
+        <v>468.12299999999999</v>
       </c>
       <c r="H40">
-        <v>8567.009</v>
+        <v>7301.6869999999999</v>
       </c>
       <c r="I40">
-        <v>111.84399999999999</v>
+        <v>73.165000000000006</v>
       </c>
       <c r="J40">
-        <v>3075.1860000000001</v>
+        <v>3734.5360000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>206.49799999999999</v>
+        <v>258.62299999999999</v>
       </c>
       <c r="O40">
-        <v>3509.5929999999998</v>
+        <v>4220.3869999999997</v>
       </c>
       <c r="P40">
-        <v>3118.9859999999999</v>
+        <v>3734.5360000000001</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>225.26599999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>5057.4160000000002</v>
+        <v>3081.3</v>
       </c>
       <c r="U40">
-        <v>29.87</v>
+        <v>256.26499999999999</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>128.20099999999999</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>-56.5</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>154.68899999999999</v>
       </c>
       <c r="Y40">
-        <v>43.8</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-4.694</v>
       </c>
       <c r="AA40">
-        <v>39.82</v>
+        <v>-19.536000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>71.822999999999993</v>
+        <v>56.442</v>
       </c>
       <c r="D41">
-        <v>264.95600000000002</v>
+        <v>361.23</v>
       </c>
       <c r="E41">
-        <v>205.02600000000001</v>
+        <v>184.255</v>
       </c>
       <c r="F41">
-        <v>183.09399999999999</v>
+        <v>213.803</v>
       </c>
       <c r="G41">
-        <v>218.42400000000001</v>
+        <v>205.10400000000001</v>
       </c>
       <c r="H41">
-        <v>8743.0249999999996</v>
+        <v>7559.7879999999996</v>
       </c>
       <c r="I41">
-        <v>83.046999999999997</v>
+        <v>38.197000000000003</v>
       </c>
       <c r="J41">
-        <v>3146.4279999999999</v>
+        <v>4098.6189999999997</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>211.392</v>
+        <v>265.58199999999999</v>
       </c>
       <c r="O41">
-        <v>3654.3780000000002</v>
+        <v>4535.5290000000005</v>
       </c>
       <c r="P41">
-        <v>3224.2280000000001</v>
+        <v>4115.5990000000002</v>
       </c>
       <c r="Q41">
-        <v>-45.198</v>
+        <v>-235.416</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>5088.6469999999999</v>
+        <v>3024.259</v>
       </c>
       <c r="U41">
-        <v>6.7480000000000002</v>
+        <v>20.849</v>
       </c>
       <c r="V41">
-        <v>177.78399999999999</v>
+        <v>94.453999999999994</v>
       </c>
       <c r="W41">
-        <v>-87.3</v>
+        <v>-59.582999999999998</v>
       </c>
       <c r="X41">
-        <v>0.48499999999999999</v>
+        <v>-44.674999999999997</v>
       </c>
       <c r="Y41">
-        <v>77.8</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-0.46500000000000002</v>
+        <v>-31.832999999999998</v>
       </c>
       <c r="AA41">
-        <v>71.822999999999993</v>
+        <v>56.442</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>155.18100000000001</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>567.85199999999998</v>
+      </c>
+      <c r="H42">
+        <v>7644.2759999999998</v>
+      </c>
+      <c r="I42">
+        <v>44.781999999999996</v>
+      </c>
+      <c r="J42">
+        <v>4207.0789999999997</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>266.98399999999998</v>
+      </c>
+      <c r="O42">
+        <v>4654.3729999999996</v>
+      </c>
+      <c r="P42">
+        <v>4207.0789999999997</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>1000</v>
+      </c>
+      <c r="T42">
+        <v>2989.9029999999998</v>
+      </c>
+      <c r="U42">
+        <v>18.384</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>63.706000000000003</v>
+      </c>
+      <c r="D43">
+        <v>338.60599999999999</v>
+      </c>
+      <c r="E43">
+        <v>196.84200000000001</v>
+      </c>
+      <c r="F43">
+        <v>134.18299999999999</v>
+      </c>
+      <c r="G43">
+        <v>363.95699999999999</v>
+      </c>
+      <c r="H43">
+        <v>7527.491</v>
+      </c>
+      <c r="I43">
+        <v>69.369</v>
+      </c>
+      <c r="J43">
+        <v>4028.4609999999998</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-221.56200000000001</v>
+      </c>
+      <c r="N43">
+        <v>271.78800000000001</v>
+      </c>
+      <c r="O43">
+        <v>4501.6409999999996</v>
+      </c>
+      <c r="P43">
+        <v>4071.5030000000002</v>
+      </c>
+      <c r="Q43">
+        <v>148.73099999999999</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3025.85</v>
+      </c>
+      <c r="U43">
+        <v>167.11500000000001</v>
+      </c>
+      <c r="V43">
+        <v>28.024999999999999</v>
+      </c>
+      <c r="W43">
+        <v>-58.866</v>
+      </c>
+      <c r="X43">
+        <v>-284.93900000000002</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>48.661999999999999</v>
+      </c>
+      <c r="AA43">
+        <v>63.706000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>-13.068</v>
+      </c>
+      <c r="D44">
+        <v>317.084</v>
+      </c>
+      <c r="E44">
+        <v>209.17500000000001</v>
+      </c>
+      <c r="F44">
+        <v>134.66200000000001</v>
+      </c>
+      <c r="G44">
+        <v>326.82</v>
+      </c>
+      <c r="H44">
+        <v>7527.085</v>
+      </c>
+      <c r="I44">
+        <v>67.757000000000005</v>
+      </c>
+      <c r="J44">
+        <v>4090.83</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>291.75599999999997</v>
+      </c>
+      <c r="O44">
+        <v>4572.3130000000001</v>
+      </c>
+      <c r="P44">
+        <v>4111.527</v>
+      </c>
+      <c r="Q44">
+        <v>-49.47</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2954.7719999999999</v>
+      </c>
+      <c r="U44">
+        <v>117.645</v>
+      </c>
+      <c r="V44">
+        <v>116.267</v>
+      </c>
+      <c r="W44">
+        <v>-58.924999999999997</v>
+      </c>
+      <c r="X44">
+        <v>-65.75</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-10.849</v>
+      </c>
+      <c r="AA44">
+        <v>-13.068</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>315.39299999999997</v>
+      </c>
+      <c r="E45">
+        <v>206.84200000000001</v>
+      </c>
+      <c r="F45">
+        <v>133.04400000000001</v>
+      </c>
+      <c r="G45">
+        <v>245.01599999999999</v>
+      </c>
+      <c r="H45">
+        <v>7504.6610000000001</v>
+      </c>
+      <c r="I45">
+        <v>66.786000000000001</v>
+      </c>
+      <c r="J45">
+        <v>4248.0730000000003</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>293.971</v>
+      </c>
+      <c r="O45">
+        <v>4729.7179999999998</v>
+      </c>
+      <c r="P45">
+        <v>4272.3230000000003</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2774.9430000000002</v>
+      </c>
+      <c r="U45">
+        <v>16.181999999999999</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>-14.044</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>58.970999999999997</v>
+      </c>
+      <c r="D46">
+        <v>298.98500000000001</v>
+      </c>
+      <c r="E46">
+        <v>168.40199999999999</v>
+      </c>
+      <c r="F46">
+        <v>139.21799999999999</v>
+      </c>
+      <c r="G46">
+        <v>437.791</v>
+      </c>
+      <c r="H46">
+        <v>7004.4369999999999</v>
+      </c>
+      <c r="I46">
+        <v>55.774999999999999</v>
+      </c>
+      <c r="J46">
+        <v>3789.2959999999998</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>265.39299999999997</v>
+      </c>
+      <c r="O46">
+        <v>4224.7790000000005</v>
+      </c>
+      <c r="P46">
+        <v>3809.5889999999999</v>
+      </c>
+      <c r="Q46">
+        <v>197.62700000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>850</v>
+      </c>
+      <c r="T46">
+        <v>2779.6579999999999</v>
+      </c>
+      <c r="U46">
+        <v>213.809</v>
+      </c>
+      <c r="V46">
+        <v>92.453000000000003</v>
+      </c>
+      <c r="W46">
+        <v>-57.003</v>
+      </c>
+      <c r="X46">
+        <v>-520.43499999999995</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-1.722</v>
+      </c>
+      <c r="AA46">
+        <v>58.970999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-17.466999999999999</v>
+      </c>
+      <c r="D47">
+        <v>265.57600000000002</v>
+      </c>
+      <c r="E47">
+        <v>168.417</v>
+      </c>
+      <c r="F47">
+        <v>137.98699999999999</v>
+      </c>
+      <c r="G47">
+        <v>202.55199999999999</v>
+      </c>
+      <c r="H47">
+        <v>6872.4049999999997</v>
+      </c>
+      <c r="I47">
+        <v>51.308999999999997</v>
+      </c>
+      <c r="J47">
+        <v>3473.8420000000001</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-10.906000000000001</v>
+      </c>
+      <c r="N47">
+        <v>533.976</v>
+      </c>
+      <c r="O47">
+        <v>4186.9350000000004</v>
+      </c>
+      <c r="P47">
+        <v>3816.87</v>
+      </c>
+      <c r="Q47">
+        <v>-199.06899999999999</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2685.47</v>
+      </c>
+      <c r="U47">
+        <v>14.74</v>
+      </c>
+      <c r="V47">
+        <v>25.343</v>
+      </c>
+      <c r="W47">
+        <v>-53.389000000000003</v>
+      </c>
+      <c r="X47">
+        <v>-86.837000000000003</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-3.5209999999999999</v>
+      </c>
+      <c r="AA47">
+        <v>-17.466999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="D48">
+        <v>256.01900000000001</v>
+      </c>
+      <c r="E48">
+        <v>164.84200000000001</v>
+      </c>
+      <c r="F48">
+        <v>138.75399999999999</v>
+      </c>
+      <c r="G48">
+        <v>283.14</v>
+      </c>
+      <c r="H48">
+        <v>7068.09</v>
+      </c>
+      <c r="I48">
+        <v>60.930999999999997</v>
+      </c>
+      <c r="J48">
+        <v>4016.35</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>264.39400000000001</v>
+      </c>
+      <c r="O48">
+        <v>4448.7120000000004</v>
+      </c>
+      <c r="P48">
+        <v>4036.643</v>
+      </c>
+      <c r="Q48">
+        <v>91.825000000000003</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2619.3780000000002</v>
+      </c>
+      <c r="U48">
+        <v>106.565</v>
+      </c>
+      <c r="V48">
+        <v>115.10299999999999</v>
+      </c>
+      <c r="W48">
+        <v>-56.378999999999998</v>
+      </c>
+      <c r="X48">
+        <v>168.655</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-12.91</v>
+      </c>
+      <c r="AA48">
+        <v>-17.399999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-17.149000000000001</v>
+      </c>
+      <c r="D49">
+        <v>295.53800000000001</v>
+      </c>
+      <c r="E49">
+        <v>183.166</v>
+      </c>
+      <c r="F49">
+        <v>142.375</v>
+      </c>
+      <c r="G49">
+        <v>296.31799999999998</v>
+      </c>
+      <c r="H49">
+        <v>7190.1170000000002</v>
+      </c>
+      <c r="I49">
+        <v>80.933999999999997</v>
+      </c>
+      <c r="J49">
+        <v>4140.1450000000004</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>261.90699999999998</v>
+      </c>
+      <c r="O49">
+        <v>4565.076</v>
+      </c>
+      <c r="P49">
+        <v>4140.1450000000004</v>
+      </c>
+      <c r="Q49">
+        <v>6.5869999999999997</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2625.0410000000002</v>
+      </c>
+      <c r="U49">
+        <v>113.152</v>
+      </c>
+      <c r="V49">
+        <v>61.09</v>
+      </c>
+      <c r="W49">
+        <v>-56.945</v>
+      </c>
+      <c r="X49">
+        <v>121.142</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>2.0590000000000002</v>
+      </c>
+      <c r="AA49">
+        <v>-17.149000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>-21.960999999999999</v>
+      </c>
+      <c r="D50">
+        <v>234.23699999999999</v>
+      </c>
+      <c r="E50">
+        <v>182.34</v>
+      </c>
+      <c r="F50">
+        <v>129.267</v>
+      </c>
+      <c r="G50">
+        <v>247.166</v>
+      </c>
+      <c r="H50">
+        <v>7560.1009999999997</v>
+      </c>
+      <c r="I50">
+        <v>84.679000000000002</v>
+      </c>
+      <c r="J50">
+        <v>4446.17</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>323.98500000000001</v>
+      </c>
+      <c r="O50">
+        <v>4933.9830000000002</v>
+      </c>
+      <c r="P50">
+        <v>4446.17</v>
+      </c>
+      <c r="Q50">
+        <v>-79.263000000000005</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>840</v>
+      </c>
+      <c r="T50">
+        <v>2626.1179999999999</v>
+      </c>
+      <c r="U50">
+        <v>33.889000000000003</v>
+      </c>
+      <c r="V50">
+        <v>97.620999999999995</v>
+      </c>
+      <c r="W50">
+        <v>-61.616999999999997</v>
+      </c>
+      <c r="X50">
+        <v>285.57900000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-8.984</v>
+      </c>
+      <c r="AA50">
+        <v>-21.960999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>43.524999999999999</v>
+      </c>
+      <c r="D51">
+        <v>306.661</v>
+      </c>
+      <c r="E51">
+        <v>170.09700000000001</v>
+      </c>
+      <c r="F51">
+        <v>201.06299999999999</v>
+      </c>
+      <c r="G51">
+        <v>582.76900000000001</v>
+      </c>
+      <c r="H51">
+        <v>7802.0990000000002</v>
+      </c>
+      <c r="I51">
+        <v>81.043999999999997</v>
+      </c>
+      <c r="J51">
+        <v>4394.3969999999999</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>-45.271999999999998</v>
+      </c>
+      <c r="M51">
+        <v>-302.96600000000001</v>
+      </c>
+      <c r="N51">
+        <v>236.22300000000001</v>
+      </c>
+      <c r="O51">
+        <v>4797.518</v>
+      </c>
+      <c r="P51">
+        <v>4394.3969999999999</v>
+      </c>
+      <c r="Q51">
+        <v>273.27800000000002</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3004.5810000000001</v>
+      </c>
+      <c r="U51">
+        <v>307.16699999999997</v>
+      </c>
+      <c r="V51">
+        <v>73.433999999999997</v>
+      </c>
+      <c r="W51">
+        <v>-64.227999999999994</v>
+      </c>
+      <c r="X51">
+        <v>231.172</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>84.391000000000005</v>
+      </c>
+      <c r="AA51">
+        <v>43.524999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>68.849000000000004</v>
+      </c>
+      <c r="D52">
+        <v>267.19200000000001</v>
+      </c>
+      <c r="E52">
+        <v>175.33600000000001</v>
+      </c>
+      <c r="F52">
+        <v>152.577</v>
+      </c>
+      <c r="G52">
+        <v>253.78399999999999</v>
+      </c>
+      <c r="H52">
+        <v>7883.902</v>
+      </c>
+      <c r="I52">
+        <v>87.73</v>
+      </c>
+      <c r="J52">
+        <v>4396.777</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>278.255</v>
+      </c>
+      <c r="O52">
+        <v>4841.4359999999997</v>
+      </c>
+      <c r="P52">
+        <v>4396.777</v>
+      </c>
+      <c r="Q52">
+        <v>-285.76499999999999</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3042.4659999999999</v>
+      </c>
+      <c r="U52">
+        <v>21.402000000000001</v>
+      </c>
+      <c r="V52">
+        <v>124.771</v>
+      </c>
+      <c r="W52">
+        <v>-62.231000000000002</v>
+      </c>
+      <c r="X52">
+        <v>-132.74700000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-8.4139999999999997</v>
+      </c>
+      <c r="AA52">
+        <v>68.849000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="D53">
+        <v>284.435</v>
+      </c>
+      <c r="E53">
+        <v>173.297</v>
+      </c>
+      <c r="F53">
+        <v>153.72499999999999</v>
+      </c>
+      <c r="G53">
+        <v>255.19900000000001</v>
+      </c>
+      <c r="H53">
+        <v>7886.8389999999999</v>
+      </c>
+      <c r="I53">
+        <v>78.376000000000005</v>
+      </c>
+      <c r="J53">
+        <v>4435.2110000000002</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>262.44499999999999</v>
+      </c>
+      <c r="O53">
+        <v>4873.8950000000004</v>
+      </c>
+      <c r="P53">
+        <v>4435.2110000000002</v>
+      </c>
+      <c r="Q53">
+        <v>2.71</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>3012.944</v>
+      </c>
+      <c r="U53">
+        <v>24.111999999999998</v>
+      </c>
+      <c r="V53">
+        <v>119.419</v>
+      </c>
+      <c r="W53">
+        <v>-62.613</v>
+      </c>
+      <c r="X53">
+        <v>1.244</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-8.6300000000000008</v>
+      </c>
+      <c r="AA53">
+        <v>1.2889999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>76.929000000000002</v>
+      </c>
+      <c r="D54">
+        <v>275.84100000000001</v>
+      </c>
+      <c r="E54">
+        <v>163.63300000000001</v>
+      </c>
+      <c r="F54">
+        <v>163.32</v>
+      </c>
+      <c r="G54">
+        <v>240.374</v>
+      </c>
+      <c r="H54">
+        <v>7752.6139999999996</v>
+      </c>
+      <c r="I54">
+        <v>69.38</v>
+      </c>
+      <c r="J54">
+        <v>4254.3760000000002</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>266.47000000000003</v>
+      </c>
+      <c r="O54">
+        <v>4707.9849999999997</v>
+      </c>
+      <c r="P54">
+        <v>4254.3760000000002</v>
+      </c>
+      <c r="Q54">
+        <v>-4.8369999999999997</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>790</v>
+      </c>
+      <c r="T54">
+        <v>3044.6289999999999</v>
+      </c>
+      <c r="U54">
+        <v>19.274999999999999</v>
+      </c>
+      <c r="V54">
+        <v>118.05200000000001</v>
+      </c>
+      <c r="W54">
+        <v>-62.841000000000001</v>
+      </c>
+      <c r="X54">
+        <v>-230.577</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-19.908999999999999</v>
+      </c>
+      <c r="AA54">
+        <v>76.929000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>25.236999999999998</v>
+      </c>
+      <c r="D55">
+        <v>266.78699999999998</v>
+      </c>
+      <c r="E55">
+        <v>188.88200000000001</v>
+      </c>
+      <c r="F55">
+        <v>148.25800000000001</v>
+      </c>
+      <c r="G55">
+        <v>243.18199999999999</v>
+      </c>
+      <c r="H55">
+        <v>7767.3630000000003</v>
+      </c>
+      <c r="I55">
+        <v>72.694999999999993</v>
+      </c>
+      <c r="J55">
+        <v>4323.21</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-21.981999999999999</v>
+      </c>
+      <c r="N55">
+        <v>238.62899999999999</v>
+      </c>
+      <c r="O55">
+        <v>4750.701</v>
+      </c>
+      <c r="P55">
+        <v>4323.21</v>
+      </c>
+      <c r="Q55">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>3016.6619999999998</v>
+      </c>
+      <c r="U55">
+        <v>19.474</v>
+      </c>
+      <c r="V55">
+        <v>59.137</v>
+      </c>
+      <c r="W55">
+        <v>-62.735999999999997</v>
+      </c>
+      <c r="X55">
+        <v>15.968</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="AA55">
+        <v>25.236999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>134.73400000000001</v>
+      </c>
+      <c r="D56">
+        <v>335.11900000000003</v>
+      </c>
+      <c r="E56">
+        <v>200.29900000000001</v>
+      </c>
+      <c r="F56">
+        <v>209.643</v>
+      </c>
+      <c r="G56">
+        <v>251.304</v>
+      </c>
+      <c r="H56">
+        <v>7862.5039999999999</v>
+      </c>
+      <c r="I56">
+        <v>101.792</v>
+      </c>
+      <c r="J56">
+        <v>4125.4170000000004</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>314.00400000000002</v>
+      </c>
+      <c r="O56">
+        <v>4610.6440000000002</v>
+      </c>
+      <c r="P56">
+        <v>4133.8850000000002</v>
+      </c>
+      <c r="Q56">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3251.86</v>
+      </c>
+      <c r="U56">
+        <v>21.225000000000001</v>
+      </c>
+      <c r="V56">
+        <v>144.893</v>
+      </c>
+      <c r="W56">
+        <v>-63.369</v>
+      </c>
+      <c r="X56">
+        <v>-88.266000000000005</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>34.002000000000002</v>
+      </c>
+      <c r="AA56">
+        <v>134.73400000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>70.801000000000002</v>
+      </c>
+      <c r="D57">
+        <v>280.98399999999998</v>
+      </c>
+      <c r="E57">
+        <v>194.071</v>
+      </c>
+      <c r="F57">
+        <v>169.01599999999999</v>
+      </c>
+      <c r="G57">
+        <v>295.61700000000002</v>
+      </c>
+      <c r="H57">
+        <v>7884.1949999999997</v>
+      </c>
+      <c r="I57">
+        <v>93.08</v>
+      </c>
+      <c r="J57">
+        <v>4204.7439999999997</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>280.60000000000002</v>
+      </c>
+      <c r="O57">
+        <v>4654.9849999999997</v>
+      </c>
+      <c r="P57">
+        <v>4208.5469999999996</v>
+      </c>
+      <c r="Q57">
+        <v>44.906999999999996</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3229.21</v>
+      </c>
+      <c r="U57">
+        <v>66.132000000000005</v>
+      </c>
+      <c r="V57">
+        <v>116.96899999999999</v>
+      </c>
+      <c r="W57">
+        <v>-64.600999999999999</v>
+      </c>
+      <c r="X57">
+        <v>-41.631</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>28.052</v>
+      </c>
+      <c r="AA57">
+        <v>70.801000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>12.816000000000001</v>
+      </c>
+      <c r="D58">
+        <v>173.678</v>
+      </c>
+      <c r="E58">
+        <v>172.04900000000001</v>
+      </c>
+      <c r="F58">
+        <v>77.23</v>
+      </c>
+      <c r="G58">
+        <v>915.02200000000005</v>
+      </c>
+      <c r="H58">
+        <v>7754.8389999999999</v>
+      </c>
+      <c r="I58">
+        <v>69.47</v>
+      </c>
+      <c r="J58">
+        <v>4412.6390000000001</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>322.61200000000002</v>
+      </c>
+      <c r="O58">
+        <v>4874.9589999999998</v>
+      </c>
+      <c r="P58">
+        <v>4412.6390000000001</v>
+      </c>
+      <c r="Q58">
+        <v>-48.21</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>750</v>
+      </c>
+      <c r="T58">
+        <v>2879.88</v>
+      </c>
+      <c r="U58">
+        <v>17.922000000000001</v>
+      </c>
+      <c r="V58">
+        <v>123.488</v>
+      </c>
+      <c r="W58">
+        <v>-64.915999999999997</v>
+      </c>
+      <c r="X58">
+        <v>-124.88</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>15.997</v>
+      </c>
+      <c r="AA58">
+        <v>12.816000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>65.244</v>
+      </c>
+      <c r="D59">
+        <v>272.18200000000002</v>
+      </c>
+      <c r="E59">
+        <v>184.45599999999999</v>
+      </c>
+      <c r="F59">
+        <v>158.227</v>
+      </c>
+      <c r="G59">
+        <v>1042.28</v>
+      </c>
+      <c r="H59">
+        <v>7730.5039999999999</v>
+      </c>
+      <c r="I59">
+        <v>46.722999999999999</v>
+      </c>
+      <c r="J59">
+        <v>4444.3680000000004</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-313.69499999999999</v>
+      </c>
+      <c r="N59">
+        <v>255.358</v>
+      </c>
+      <c r="O59">
+        <v>4836.3209999999999</v>
+      </c>
+      <c r="P59">
+        <v>4444.3680000000004</v>
+      </c>
+      <c r="Q59">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2894.183</v>
+      </c>
+      <c r="U59">
+        <v>17.806000000000001</v>
+      </c>
+      <c r="V59">
+        <v>42.677999999999997</v>
+      </c>
+      <c r="W59">
+        <v>-58.606999999999999</v>
+      </c>
+      <c r="X59">
+        <v>-20.181999999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-47.524999999999999</v>
+      </c>
+      <c r="AA59">
+        <v>65.244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>449.38</v>
+      </c>
+      <c r="D60">
+        <v>229.02</v>
+      </c>
+      <c r="E60">
+        <v>148.43299999999999</v>
+      </c>
+      <c r="F60">
+        <v>148.136</v>
+      </c>
+      <c r="G60">
+        <v>241.071</v>
+      </c>
+      <c r="H60">
+        <v>7114.5209999999997</v>
+      </c>
+      <c r="I60">
+        <v>63.396000000000001</v>
+      </c>
+      <c r="J60">
+        <v>3443.29</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>237.375</v>
+      </c>
+      <c r="O60">
+        <v>3822.6779999999999</v>
+      </c>
+      <c r="P60">
+        <v>3460.7429999999999</v>
+      </c>
+      <c r="Q60">
+        <v>2.448</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3291.8429999999998</v>
+      </c>
+      <c r="U60">
+        <v>20.254000000000001</v>
+      </c>
+      <c r="V60">
+        <v>132.97399999999999</v>
+      </c>
+      <c r="W60">
+        <v>-58.667000000000002</v>
+      </c>
+      <c r="X60">
+        <v>-1171.6849999999999</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>64.320999999999998</v>
+      </c>
+      <c r="AA60">
+        <v>449.38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>76.433999999999997</v>
+      </c>
+      <c r="D61">
+        <v>237.34899999999999</v>
+      </c>
+      <c r="E61">
+        <v>162.446</v>
+      </c>
+      <c r="F61">
+        <v>144.15600000000001</v>
+      </c>
+      <c r="G61">
+        <v>347.24</v>
+      </c>
+      <c r="H61">
+        <v>7139.9089999999997</v>
+      </c>
+      <c r="I61">
+        <v>66.709000000000003</v>
+      </c>
+      <c r="J61">
+        <v>3443.0419999999999</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>234.983</v>
+      </c>
+      <c r="O61">
+        <v>3828.4659999999999</v>
+      </c>
+      <c r="P61">
+        <v>3446.02</v>
+      </c>
+      <c r="Q61">
+        <v>155.62</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>3311.4430000000002</v>
+      </c>
+      <c r="U61">
+        <v>175.874</v>
+      </c>
+      <c r="V61">
+        <v>102.566</v>
+      </c>
+      <c r="W61">
+        <v>-58.692999999999998</v>
+      </c>
+      <c r="X61">
+        <v>-75.808000000000007</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-2.9009999999999998</v>
+      </c>
+      <c r="AA61">
+        <v>76.433999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>24.251999999999999</v>
+      </c>
+      <c r="D62">
+        <v>223.87799999999999</v>
+      </c>
+      <c r="E62">
+        <v>152.08600000000001</v>
+      </c>
+      <c r="F62">
+        <v>145.69499999999999</v>
+      </c>
+      <c r="G62">
+        <v>636.46900000000005</v>
+      </c>
+      <c r="H62">
+        <v>6895.5150000000003</v>
+      </c>
+      <c r="I62">
+        <v>54.920999999999999</v>
+      </c>
+      <c r="J62">
+        <v>3320.1410000000001</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>223.78399999999999</v>
+      </c>
+      <c r="O62">
+        <v>3690.7139999999999</v>
+      </c>
+      <c r="P62">
+        <v>3320.1410000000001</v>
+      </c>
+      <c r="Q62">
+        <v>-153.34100000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>500</v>
+      </c>
+      <c r="T62">
+        <v>3204.8009999999999</v>
+      </c>
+      <c r="U62">
+        <v>22.533000000000001</v>
+      </c>
+      <c r="V62">
+        <v>101.163</v>
+      </c>
+      <c r="W62">
+        <v>-62.146999999999998</v>
+      </c>
+      <c r="X62">
+        <v>-228.39400000000001</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-17.317</v>
+      </c>
+      <c r="AA62">
+        <v>24.251999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>43.307000000000002</v>
+      </c>
+      <c r="D63">
+        <v>187.59800000000001</v>
+      </c>
+      <c r="E63">
+        <v>155.29400000000001</v>
+      </c>
+      <c r="F63">
+        <v>121.154</v>
+      </c>
+      <c r="G63">
+        <v>235.095</v>
+      </c>
+      <c r="H63">
+        <v>6896.96</v>
+      </c>
+      <c r="I63">
+        <v>55.121000000000002</v>
+      </c>
+      <c r="J63">
+        <v>3381.06</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>-8.6929999999999996</v>
+      </c>
+      <c r="M63">
+        <v>-16.956</v>
+      </c>
+      <c r="N63">
+        <v>189.946</v>
+      </c>
+      <c r="O63">
+        <v>3706.8429999999998</v>
+      </c>
+      <c r="P63">
+        <v>3381.06</v>
+      </c>
+      <c r="Q63">
+        <v>-6.8929999999999998</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3190.1170000000002</v>
+      </c>
+      <c r="U63">
+        <v>15.64</v>
+      </c>
+      <c r="V63">
+        <v>72.870999999999995</v>
+      </c>
+      <c r="W63">
+        <v>-62.262</v>
+      </c>
+      <c r="X63">
+        <v>-17.155000000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="AA63">
+        <v>43.307000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>109.06699999999999</v>
+      </c>
+      <c r="D64">
+        <v>188.988</v>
+      </c>
+      <c r="E64">
+        <v>154.97200000000001</v>
+      </c>
+      <c r="F64">
+        <v>124.846</v>
+      </c>
+      <c r="G64">
+        <v>250.13399999999999</v>
+      </c>
+      <c r="H64">
+        <v>6865.0249999999996</v>
+      </c>
+      <c r="I64">
+        <v>46.1</v>
+      </c>
+      <c r="J64">
+        <v>3197.7809999999999</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>191.03700000000001</v>
+      </c>
+      <c r="O64">
+        <v>3524.8159999999998</v>
+      </c>
+      <c r="P64">
+        <v>3197.7809999999999</v>
+      </c>
+      <c r="Q64">
+        <v>76.06</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>3340.2089999999998</v>
+      </c>
+      <c r="U64">
+        <v>91.7</v>
+      </c>
+      <c r="V64">
+        <v>125.33</v>
+      </c>
+      <c r="W64">
+        <v>-62.389000000000003</v>
+      </c>
+      <c r="X64">
+        <v>-153.36600000000001</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-20.841999999999999</v>
+      </c>
+      <c r="AA64">
+        <v>109.06699999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>112.014</v>
+      </c>
+      <c r="D65">
+        <v>184.983</v>
+      </c>
+      <c r="E65">
+        <v>153.30199999999999</v>
+      </c>
+      <c r="F65">
+        <v>124.867</v>
+      </c>
+      <c r="G65">
+        <v>281.697</v>
+      </c>
+      <c r="H65">
+        <v>6862.0810000000001</v>
+      </c>
+      <c r="I65">
+        <v>51.338999999999999</v>
+      </c>
+      <c r="J65">
+        <v>2991.0509999999999</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>217.214</v>
+      </c>
+      <c r="O65">
+        <v>3353.1590000000001</v>
+      </c>
+      <c r="P65">
+        <v>2991.0509999999999</v>
+      </c>
+      <c r="Q65">
+        <v>18.510999999999999</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>3508.922</v>
+      </c>
+      <c r="U65">
+        <v>110.211</v>
+      </c>
+      <c r="V65">
+        <v>156.22900000000001</v>
+      </c>
+      <c r="W65">
+        <v>-63.234000000000002</v>
+      </c>
+      <c r="X65">
+        <v>-160.52099999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>12.288</v>
+      </c>
+      <c r="AA65">
+        <v>112.014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>47.755000000000003</v>
+      </c>
+      <c r="D66">
+        <v>184.745</v>
+      </c>
+      <c r="E66">
+        <v>104.551</v>
+      </c>
+      <c r="F66">
+        <v>128.89500000000001</v>
+      </c>
+      <c r="G66">
+        <v>1672.5129999999999</v>
+      </c>
+      <c r="H66">
+        <v>6772.0020000000004</v>
+      </c>
+      <c r="I66">
+        <v>44.25</v>
+      </c>
+      <c r="J66">
+        <v>2908.4769999999999</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>183.286</v>
+      </c>
+      <c r="O66">
+        <v>3278.7089999999998</v>
+      </c>
+      <c r="P66">
+        <v>2908.4769999999999</v>
+      </c>
+      <c r="Q66">
+        <v>-97.572000000000003</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>500</v>
+      </c>
+      <c r="T66">
+        <v>3493.2930000000001</v>
+      </c>
+      <c r="U66">
+        <v>12.638999999999999</v>
+      </c>
+      <c r="V66">
+        <v>102.80800000000001</v>
+      </c>
+      <c r="W66">
+        <v>-67.394000000000005</v>
+      </c>
+      <c r="X66">
+        <v>-160.994</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>70.475999999999999</v>
+      </c>
+      <c r="AA66">
+        <v>47.755000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>70.2</v>
+      </c>
+      <c r="D67">
+        <v>184.024</v>
+      </c>
+      <c r="E67">
+        <v>140.173</v>
+      </c>
+      <c r="F67">
+        <v>133.65199999999999</v>
+      </c>
+      <c r="G67">
+        <v>501.84500000000003</v>
+      </c>
+      <c r="H67">
+        <v>6958.51</v>
+      </c>
+      <c r="I67">
+        <v>67.004000000000005</v>
+      </c>
+      <c r="J67">
+        <v>3080.2620000000002</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-18.155000000000001</v>
+      </c>
+      <c r="N67">
+        <v>168.4</v>
+      </c>
+      <c r="O67">
+        <v>3460.63</v>
+      </c>
+      <c r="P67">
+        <v>3080.2620000000002</v>
+      </c>
+      <c r="Q67">
+        <v>22.539000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>3497.88</v>
+      </c>
+      <c r="U67">
+        <v>13.388999999999999</v>
+      </c>
+      <c r="V67">
+        <v>109.708</v>
+      </c>
+      <c r="W67">
+        <v>-67.554000000000002</v>
+      </c>
+      <c r="X67">
+        <v>101.697</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>4.5609999999999999</v>
+      </c>
+      <c r="AA67">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>119.678</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1672.732</v>
+      </c>
+      <c r="H68">
+        <v>7317.5690000000004</v>
+      </c>
+      <c r="I68">
+        <v>73.748999999999995</v>
+      </c>
+      <c r="J68">
+        <v>2280.1280000000002</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>162.333</v>
+      </c>
+      <c r="O68">
+        <v>2654.1129999999998</v>
+      </c>
+      <c r="P68">
+        <v>2280.1280000000002</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>4663.4560000000001</v>
+      </c>
+      <c r="U68">
+        <v>76.325999999999993</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>165.26900000000001</v>
+      </c>
+      <c r="D69">
+        <v>196.66900000000001</v>
+      </c>
+      <c r="E69">
+        <v>121.99299999999999</v>
+      </c>
+      <c r="F69">
+        <v>128.209</v>
+      </c>
+      <c r="G69">
+        <v>1341.19</v>
+      </c>
+      <c r="H69">
+        <v>7297.4709999999995</v>
+      </c>
+      <c r="I69">
+        <v>70.432000000000002</v>
+      </c>
+      <c r="J69">
+        <v>2131.88</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>180.78399999999999</v>
+      </c>
+      <c r="O69">
+        <v>2544.096</v>
+      </c>
+      <c r="P69">
+        <v>2131.88</v>
+      </c>
+      <c r="Q69">
+        <v>-401.65899999999999</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>4753.375</v>
+      </c>
+      <c r="U69">
+        <v>27.315000000000001</v>
+      </c>
+      <c r="V69">
+        <v>130.53700000000001</v>
+      </c>
+      <c r="W69">
+        <v>-67.638999999999996</v>
+      </c>
+      <c r="X69">
+        <v>-218.34299999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-4.1859999999999999</v>
+      </c>
+      <c r="AA69">
+        <v>165.26900000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>188.41900000000001</v>
+      </c>
+      <c r="D70">
+        <v>166.506</v>
+      </c>
+      <c r="E70">
+        <v>125.91200000000001</v>
+      </c>
+      <c r="F70">
+        <v>86.116</v>
+      </c>
+      <c r="G70">
+        <v>940.971</v>
+      </c>
+      <c r="H70">
+        <v>7388.1959999999999</v>
+      </c>
+      <c r="I70">
+        <v>54.545000000000002</v>
+      </c>
+      <c r="J70">
+        <v>2422.8910000000001</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>140.99299999999999</v>
+      </c>
+      <c r="O70">
+        <v>2813.8180000000002</v>
+      </c>
+      <c r="P70">
+        <v>2422.8910000000001</v>
+      </c>
+      <c r="Q70">
+        <v>-372.68200000000002</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>400</v>
+      </c>
+      <c r="T70">
+        <v>4574.3779999999997</v>
+      </c>
+      <c r="U70">
+        <v>67.561999999999998</v>
+      </c>
+      <c r="V70">
+        <v>88.331000000000003</v>
+      </c>
+      <c r="W70">
+        <v>-71.228999999999999</v>
+      </c>
+      <c r="X70">
+        <v>-75.915999999999997</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>9.3010000000000002</v>
+      </c>
+      <c r="AA70">
+        <v>188.41900000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>72.962999999999994</v>
+      </c>
+      <c r="D71">
+        <v>236.64400000000001</v>
+      </c>
+      <c r="E71">
+        <v>135.89699999999999</v>
+      </c>
+      <c r="F71">
+        <v>145.17599999999999</v>
+      </c>
+      <c r="G71">
+        <v>937.76300000000003</v>
+      </c>
+      <c r="H71">
+        <v>7427.674</v>
+      </c>
+      <c r="I71">
+        <v>53.338999999999999</v>
+      </c>
+      <c r="J71">
+        <v>2496.4560000000001</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>-33.448</v>
+      </c>
+      <c r="M71">
+        <v>-2.0009999999999999</v>
+      </c>
+      <c r="N71">
+        <v>153.066</v>
+      </c>
+      <c r="O71">
+        <v>2846.49</v>
+      </c>
+      <c r="P71">
+        <v>2496.4560000000001</v>
+      </c>
+      <c r="Q71">
+        <v>34.735999999999997</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4581.1840000000002</v>
+      </c>
+      <c r="U71">
+        <v>160.86099999999999</v>
+      </c>
+      <c r="V71">
+        <v>113.16200000000001</v>
+      </c>
+      <c r="W71">
+        <v>-71.397999999999996</v>
+      </c>
+      <c r="X71">
+        <v>-40.090000000000003</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>9.4039999999999999</v>
+      </c>
+      <c r="AA71">
+        <v>72.962999999999994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>212.27799999999999</v>
+      </c>
+      <c r="E72">
+        <v>129.91900000000001</v>
+      </c>
+      <c r="F72">
+        <v>149.452</v>
+      </c>
+      <c r="G72">
+        <v>823.68100000000004</v>
+      </c>
+      <c r="H72">
+        <v>7502.8180000000002</v>
+      </c>
+      <c r="I72">
+        <v>93.515000000000001</v>
+      </c>
+      <c r="J72">
+        <v>2417.4290000000001</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>187.05699999999999</v>
+      </c>
+      <c r="O72">
+        <v>2793.848</v>
+      </c>
+      <c r="P72">
+        <v>2417.4290000000001</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>4708.97</v>
+      </c>
+      <c r="U72">
+        <v>86.338999999999999</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>193.845</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>53.024999999999999</v>
+      </c>
+      <c r="D73">
+        <v>235.44200000000001</v>
+      </c>
+      <c r="E73">
+        <v>155.673</v>
+      </c>
+      <c r="F73">
+        <v>152.929</v>
+      </c>
+      <c r="G73">
+        <v>933.19799999999998</v>
+      </c>
+      <c r="H73">
+        <v>7824.81</v>
+      </c>
+      <c r="I73">
+        <v>100.32299999999999</v>
+      </c>
+      <c r="J73">
+        <v>2634.1759999999999</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>218.06299999999999</v>
+      </c>
+      <c r="O73">
+        <v>3099.886</v>
+      </c>
+      <c r="P73">
+        <v>2634.1759999999999</v>
+      </c>
+      <c r="Q73">
+        <v>30.158999999999999</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>4724.924</v>
+      </c>
+      <c r="U73">
+        <v>133.405</v>
+      </c>
+      <c r="V73">
+        <v>141.03100000000001</v>
+      </c>
+      <c r="W73">
+        <v>-71.656000000000006</v>
+      </c>
+      <c r="X73">
+        <v>230.67500000000001</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>1.6259999999999999</v>
+      </c>
+      <c r="AA73">
+        <v>53.024999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>63.896000000000001</v>
+      </c>
+      <c r="D74">
+        <v>271.166</v>
+      </c>
+      <c r="E74">
+        <v>164.803</v>
+      </c>
+      <c r="F74">
+        <v>157.35900000000001</v>
+      </c>
+      <c r="G74">
+        <v>637.28200000000004</v>
+      </c>
+      <c r="H74">
+        <v>7804.0240000000003</v>
+      </c>
+      <c r="I74">
+        <v>92.287999999999997</v>
+      </c>
+      <c r="J74">
+        <v>2658.5010000000002</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>181.79900000000001</v>
+      </c>
+      <c r="O74">
+        <v>3090.7809999999999</v>
+      </c>
+      <c r="P74">
+        <v>2658.5010000000002</v>
+      </c>
+      <c r="Q74">
+        <v>-247.28399999999999</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>400</v>
+      </c>
+      <c r="T74">
+        <v>4713.2430000000004</v>
+      </c>
+      <c r="U74">
+        <v>17.901</v>
+      </c>
+      <c r="V74">
+        <v>112.758</v>
+      </c>
+      <c r="W74">
+        <v>-77.039000000000001</v>
+      </c>
+      <c r="X74">
+        <v>-95.195999999999998</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="AA74">
+        <v>63.896000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>44.551000000000002</v>
+      </c>
+      <c r="D75">
+        <v>267.14400000000001</v>
+      </c>
+      <c r="E75">
+        <v>153.80099999999999</v>
+      </c>
+      <c r="F75">
+        <v>161.44800000000001</v>
+      </c>
+      <c r="G75">
+        <v>588.28099999999995</v>
+      </c>
+      <c r="H75">
+        <v>7962.48</v>
+      </c>
+      <c r="I75">
+        <v>76.38</v>
+      </c>
+      <c r="J75">
+        <v>2826.8240000000001</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-42.664999999999999</v>
+      </c>
+      <c r="N75">
+        <v>189.44900000000001</v>
+      </c>
+      <c r="O75">
+        <v>3281.3090000000002</v>
+      </c>
+      <c r="P75">
+        <v>2885.3139999999999</v>
+      </c>
+      <c r="Q75">
+        <v>-3.3490000000000002</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>4681.1710000000003</v>
+      </c>
+      <c r="U75">
+        <v>15.295</v>
+      </c>
+      <c r="V75">
+        <v>114.559</v>
+      </c>
+      <c r="W75">
+        <v>-77.236999999999995</v>
+      </c>
+      <c r="X75">
+        <v>88.397999999999996</v>
+      </c>
+      <c r="Y75">
+        <v>39.853999999999999</v>
+      </c>
+      <c r="Z75">
+        <v>-6.4740000000000002</v>
+      </c>
+      <c r="AA75">
+        <v>44.551000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>239.14099999999999</v>
+      </c>
+      <c r="E76">
+        <v>163.834</v>
+      </c>
+      <c r="F76">
+        <v>165.98</v>
+      </c>
+      <c r="G76">
+        <v>511.63900000000001</v>
+      </c>
+      <c r="H76">
+        <v>8014.1270000000004</v>
+      </c>
+      <c r="I76">
+        <v>67.061999999999998</v>
+      </c>
+      <c r="J76">
+        <v>2838.9749999999999</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>194.756</v>
+      </c>
+      <c r="O76">
+        <v>3312.0059999999999</v>
+      </c>
+      <c r="P76">
+        <v>2911.375</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>4702.1210000000001</v>
+      </c>
+      <c r="U76">
+        <v>8.6639999999999997</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>43.7</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>71.052999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>226.566</v>
+      </c>
+      <c r="D77">
+        <v>244.733</v>
+      </c>
+      <c r="E77">
+        <v>168.32400000000001</v>
+      </c>
+      <c r="F77">
+        <v>170.196</v>
+      </c>
+      <c r="G77">
+        <v>756.10599999999999</v>
+      </c>
+      <c r="H77">
+        <v>8262.9539999999997</v>
+      </c>
+      <c r="I77">
+        <v>70.31</v>
+      </c>
+      <c r="J77">
+        <v>2767.5819999999999</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>230.81399999999999</v>
+      </c>
+      <c r="O77">
+        <v>3241.6819999999998</v>
+      </c>
+      <c r="P77">
+        <v>2854.7069999999999</v>
+      </c>
+      <c r="Q77">
+        <v>233.505</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>5021.2719999999999</v>
+      </c>
+      <c r="U77">
+        <v>121.233</v>
+      </c>
+      <c r="V77">
+        <v>146.29499999999999</v>
+      </c>
+      <c r="W77">
+        <v>-77.772999999999996</v>
+      </c>
+      <c r="X77">
+        <v>-0.625</v>
+      </c>
+      <c r="Y77">
+        <v>43.5</v>
+      </c>
+      <c r="Z77">
+        <v>2.6629999999999998</v>
+      </c>
+      <c r="AA77">
+        <v>226.566</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>86.802000000000007</v>
+      </c>
+      <c r="D78">
+        <v>232.90700000000001</v>
+      </c>
+      <c r="E78">
+        <v>175.3</v>
+      </c>
+      <c r="F78">
+        <v>169.631</v>
+      </c>
+      <c r="G78">
+        <v>425.19400000000002</v>
+      </c>
+      <c r="H78">
+        <v>8420.5619999999999</v>
+      </c>
+      <c r="I78">
+        <v>68.84</v>
+      </c>
+      <c r="J78">
+        <v>2914.7649999999999</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>152.94999999999999</v>
+      </c>
+      <c r="O78">
+        <v>3340.3020000000001</v>
+      </c>
+      <c r="P78">
+        <v>2961.665</v>
+      </c>
+      <c r="Q78">
+        <v>-129.101</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>400</v>
+      </c>
+      <c r="T78">
+        <v>5080.26</v>
+      </c>
+      <c r="U78">
+        <v>110.89100000000001</v>
+      </c>
+      <c r="V78">
+        <v>101.81100000000001</v>
+      </c>
+      <c r="W78">
+        <v>-86.379000000000005</v>
+      </c>
+      <c r="X78">
+        <v>80.334000000000003</v>
+      </c>
+      <c r="Y78">
+        <v>46.9</v>
+      </c>
+      <c r="Z78">
+        <v>-4.9249999999999998</v>
+      </c>
+      <c r="AA78">
+        <v>86.802000000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>19.456</v>
+      </c>
+      <c r="D79">
+        <v>228.90799999999999</v>
+      </c>
+      <c r="E79">
+        <v>179.96</v>
+      </c>
+      <c r="F79">
+        <v>166.77</v>
+      </c>
+      <c r="G79">
+        <v>370.44299999999998</v>
+      </c>
+      <c r="H79">
+        <v>8574.2839999999997</v>
+      </c>
+      <c r="I79">
+        <v>89.635000000000005</v>
+      </c>
+      <c r="J79">
+        <v>3146.6109999999999</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>-14.444000000000001</v>
+      </c>
+      <c r="M79">
+        <v>-317.53100000000001</v>
+      </c>
+      <c r="N79">
+        <v>186.179</v>
+      </c>
+      <c r="O79">
+        <v>3547.2220000000002</v>
+      </c>
+      <c r="P79">
+        <v>3146.6109999999999</v>
+      </c>
+      <c r="Q79">
+        <v>69.052000000000007</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>5027.0619999999999</v>
+      </c>
+      <c r="U79">
+        <v>187.56299999999999</v>
+      </c>
+      <c r="V79">
+        <v>114.55</v>
+      </c>
+      <c r="W79">
+        <v>-86.561999999999998</v>
+      </c>
+      <c r="X79">
+        <v>113.18300000000001</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>-2.3530000000000002</v>
+      </c>
+      <c r="AA79">
+        <v>19.456</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>241.24100000000001</v>
+      </c>
+      <c r="E80">
+        <v>208.88900000000001</v>
+      </c>
+      <c r="F80">
+        <v>176.51499999999999</v>
+      </c>
+      <c r="G80">
+        <v>267.48500000000001</v>
+      </c>
+      <c r="H80">
+        <v>8567.009</v>
+      </c>
+      <c r="I80">
+        <v>111.84399999999999</v>
+      </c>
+      <c r="J80">
+        <v>3075.1860000000001</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>206.49799999999999</v>
+      </c>
+      <c r="O80">
+        <v>3509.5929999999998</v>
+      </c>
+      <c r="P80">
+        <v>3118.9859999999999</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>5057.4160000000002</v>
+      </c>
+      <c r="U80">
+        <v>29.87</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>43.8</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>39.82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>71.822999999999993</v>
+      </c>
+      <c r="D81">
+        <v>264.95600000000002</v>
+      </c>
+      <c r="E81">
+        <v>205.02600000000001</v>
+      </c>
+      <c r="F81">
+        <v>183.09399999999999</v>
+      </c>
+      <c r="G81">
+        <v>218.42400000000001</v>
+      </c>
+      <c r="H81">
+        <v>8743.0249999999996</v>
+      </c>
+      <c r="I81">
+        <v>83.046999999999997</v>
+      </c>
+      <c r="J81">
+        <v>3146.4279999999999</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>211.392</v>
+      </c>
+      <c r="O81">
+        <v>3654.3780000000002</v>
+      </c>
+      <c r="P81">
+        <v>3224.2280000000001</v>
+      </c>
+      <c r="Q81">
+        <v>-45.198</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>5088.6469999999999</v>
+      </c>
+      <c r="U81">
+        <v>6.7480000000000002</v>
+      </c>
+      <c r="V81">
+        <v>177.78399999999999</v>
+      </c>
+      <c r="W81">
+        <v>-87.3</v>
+      </c>
+      <c r="X81">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="Y81">
+        <v>77.8</v>
+      </c>
+      <c r="Z81">
+        <v>-0.46500000000000002</v>
+      </c>
+      <c r="AA81">
+        <v>71.822999999999993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>168.816</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>269.24099999999999</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>199.73</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>194.05699999999999</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>334.899</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>9111.3940000000002</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>62.332000000000001</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>3385.0509999999999</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>169.786</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>3876.9459999999999</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>3447.355</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>53.825000000000003</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>350</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>5234.4480000000003</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>6.3090000000000002</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>127.494</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-94.855999999999995</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>225.04599999999999</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>57.454000000000001</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-0.05</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>168.816</v>
       </c>
     </row>
